--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T10:53:52+10:00</t>
+    <t>2024-05-15T12:58:39+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14035" uniqueCount="1501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14333" uniqueCount="1523">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:47:37+10:00</t>
+    <t>2024-05-20T09:59:48+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2890,7 +2890,8 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t>openAtEnd</t>
+    <t xml:space="preserve">profile:system}
+</t>
   </si>
   <si>
     <t>Organization.identifier:AUHPIO</t>
@@ -3154,24 +3155,24 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {Address|http://hl7.org.au/fhir/StructureDefinition/au-address}
+    <t xml:space="preserve">Address {http://hl7.org.au/fhir/StructureDefinition/au-address}
 </t>
   </si>
   <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
-  </si>
-  <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
-  </si>
-  <si>
-    <t>The address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates. Postal addresses are often used as proxies for physical locations (also see the Location resource).</t>
+    <t>An address in Australia for use within an Australian healthcare context</t>
+  </si>
+  <si>
+    <t>An Australian address expressed using postal conventions (as opposed to GPS or other location definition formats).</t>
+  </si>
+  <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+inv-add-0:The address shall at least have text or a line {text.exists() or line.exists()}inv-add-1:If asserting no fixed address, the type shall be 'physical' {extension('http://hl7.org.au/fhir/StructureDefinition/no-fixed-address').exists() implies type='physical'}inv-add-2:If asserting no fixed address, the address text shall begin with 'NO FIXED ADDRESS' {extension('http://hl7.org.au/fhir/StructureDefinition/no-fixed-address').exists() implies text.startsWith('NO FIXED ADDRESS')}org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>Organization.partOf</t>
@@ -3772,7 +3773,7 @@
     <t>An address for the individual</t>
   </si>
   <si>
-    <t>An Australian address expressed using postal conventions (as opposed to GPS or other location definition formats).</t>
+    <t>The address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates. Postal addresses are often used as proxies for physical locations (also see the Location resource).</t>
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
@@ -3911,7 +3912,14 @@
     <t>Patient.contact.address</t>
   </si>
   <si>
+    <t xml:space="preserve">Address {Address|http://hl7.org.au/fhir/StructureDefinition/au-address}
+</t>
+  </si>
+  <si>
     <t>Address for the contact person</t>
+  </si>
+  <si>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
     <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
@@ -4152,6 +4160,63 @@
   </si>
   <si>
     <t>Often, specific identities are assigned for the agent.</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII</t>
+  </si>
+  <si>
+    <t>AUHPII</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII.id</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.id</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII.use</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.use</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII.type</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII.system</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.system</t>
+  </si>
+  <si>
+    <t>http://ns.electronichealth.net.au/id/hi/hpii/1.0</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII.value</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.value</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII.period</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.period</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:AUHPII.assigner</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner</t>
   </si>
   <si>
     <t>Practitioner.active</t>
@@ -4208,6 +4273,9 @@
   </si>
   <si>
     <t>Practitioner.address</t>
+  </si>
+  <si>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
   </si>
   <si>
     <t>The home/mailing address of the practitioner is often required for employee administration purposes, and also for some rostering services where the start point (practitioners home) can be used in calculations.</t>
@@ -5769,7 +5837,7 @@
         <v>2</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="123">
@@ -5777,7 +5845,7 @@
         <v>4</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>1308</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="124">
@@ -5793,7 +5861,7 @@
         <v>8</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="126">
@@ -5845,7 +5913,7 @@
         <v>19</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>1309</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="133">
@@ -5881,7 +5949,7 @@
         <v>27</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>1310</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="138">
@@ -5889,7 +5957,7 @@
         <v>29</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>1311</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="139">
@@ -5921,7 +5989,7 @@
         <v>2</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="143">
@@ -5929,7 +5997,7 @@
         <v>4</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>1388</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="144">
@@ -5945,7 +6013,7 @@
         <v>8</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="146">
@@ -5997,7 +6065,7 @@
         <v>19</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>1389</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="153">
@@ -6033,7 +6101,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>1390</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="158">
@@ -6041,7 +6109,7 @@
         <v>29</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>1391</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="159">
@@ -6067,7 +6135,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK417"/>
+  <dimension ref="A1:AK426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6095,7 +6163,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="10.62890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="44.0546875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="38.8125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.71484375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.08984375" customWidth="true" bestFit="true"/>
@@ -32567,14 +32635,14 @@
         <v>74</v>
       </c>
       <c r="AC253" t="s" s="2">
-        <v>491</v>
+        <v>919</v>
       </c>
       <c r="AD253" s="2"/>
       <c r="AE253" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF253" t="s" s="2">
-        <v>919</v>
+        <v>414</v>
       </c>
       <c r="AG253" t="s" s="2">
         <v>914</v>
@@ -33137,7 +33205,7 @@
       </c>
       <c r="F259" s="2"/>
       <c r="G259" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H259" t="s" s="2">
         <v>81</v>
@@ -33171,10 +33239,10 @@
       </c>
       <c r="R259" s="2"/>
       <c r="S259" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T259" t="s" s="2">
         <v>952</v>
-      </c>
-      <c r="T259" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U259" t="s" s="2">
         <v>953</v>
@@ -39365,10 +39433,10 @@
         <v>1202</v>
       </c>
       <c r="N318" t="s" s="2">
+        <v>1007</v>
+      </c>
+      <c r="O318" t="s" s="2">
         <v>1203</v>
-      </c>
-      <c r="O318" t="s" s="2">
-        <v>1008</v>
       </c>
       <c r="P318" t="s" s="2">
         <v>1204</v>
@@ -40522,19 +40590,19 @@
         <v>74</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>1005</v>
+        <v>1247</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>1007</v>
+        <v>1249</v>
       </c>
       <c r="O329" t="s" s="2">
-        <v>1008</v>
+        <v>1203</v>
       </c>
       <c r="P329" t="s" s="2">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="Q329" t="s" s="2">
         <v>74</v>
@@ -40603,10 +40671,10 @@
         <v>1047</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -40635,11 +40703,11 @@
         <v>1145</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="O330" s="2"/>
       <c r="P330" t="s" s="2">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="Q330" t="s" s="2">
         <v>74</v>
@@ -40688,7 +40756,7 @@
         <v>74</v>
       </c>
       <c r="AG330" t="s" s="2">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="AH330" t="s" s="2">
         <v>72</v>
@@ -40708,10 +40776,10 @@
         <v>1047</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -40737,14 +40805,14 @@
         <v>715</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="O331" s="2"/>
       <c r="P331" t="s" s="2">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="Q331" t="s" s="2">
         <v>74</v>
@@ -40793,7 +40861,7 @@
         <v>74</v>
       </c>
       <c r="AG331" t="s" s="2">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="AH331" t="s" s="2">
         <v>72</v>
@@ -40802,7 +40870,7 @@
         <v>81</v>
       </c>
       <c r="AJ331" t="s" s="2">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="AK331" t="s" s="2">
         <v>93</v>
@@ -40813,10 +40881,10 @@
         <v>1047</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -40842,10 +40910,10 @@
         <v>697</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="N332" t="s" s="2">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="O332" s="2"/>
       <c r="P332" s="2"/>
@@ -40896,7 +40964,7 @@
         <v>74</v>
       </c>
       <c r="AG332" t="s" s="2">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="AH332" t="s" s="2">
         <v>72</v>
@@ -40916,10 +40984,10 @@
         <v>1047</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -40945,16 +41013,16 @@
         <v>221</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="N333" t="s" s="2">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="O333" t="s" s="2">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="P333" t="s" s="2">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="Q333" t="s" s="2">
         <v>74</v>
@@ -41003,7 +41071,7 @@
         <v>74</v>
       </c>
       <c r="AG333" t="s" s="2">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="AH333" t="s" s="2">
         <v>72</v>
@@ -41023,10 +41091,10 @@
         <v>1047</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -41126,10 +41194,10 @@
         <v>1047</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -41231,10 +41299,10 @@
         <v>1047</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -41338,10 +41406,10 @@
         <v>1047</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -41367,16 +41435,16 @@
         <v>143</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="O337" t="s" s="2">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="P337" t="s" s="2">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="Q337" t="s" s="2">
         <v>74</v>
@@ -41405,7 +41473,7 @@
       </c>
       <c r="Z337" s="2"/>
       <c r="AA337" t="s" s="2">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="AB337" t="s" s="2">
         <v>74</v>
@@ -41423,7 +41491,7 @@
         <v>74</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>81</v>
@@ -41443,10 +41511,10 @@
         <v>1047</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -41472,16 +41540,16 @@
         <v>458</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="O338" t="s" s="2">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="P338" t="s" s="2">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="Q338" t="s" s="2">
         <v>74</v>
@@ -41530,7 +41598,7 @@
         <v>74</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>72</v>
@@ -41550,14 +41618,14 @@
         <v>1047</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="F339" s="2"/>
       <c r="G339" t="s" s="2">
@@ -41576,16 +41644,16 @@
         <v>74</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="O339" t="s" s="2">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="P339" s="2"/>
       <c r="Q339" t="s" s="2">
@@ -41635,7 +41703,7 @@
         <v>74</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>72</v>
@@ -41655,10 +41723,10 @@
         <v>1047</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -41684,16 +41752,16 @@
         <v>715</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="O340" t="s" s="2">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="P340" t="s" s="2">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="Q340" t="s" s="2">
         <v>74</v>
@@ -41742,7 +41810,7 @@
         <v>74</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>72</v>
@@ -41762,10 +41830,10 @@
         <v>1047</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -41791,16 +41859,16 @@
         <v>221</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="O341" t="s" s="2">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="P341" t="s" s="2">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="Q341" t="s" s="2">
         <v>74</v>
@@ -41849,7 +41917,7 @@
         <v>74</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>72</v>
@@ -41869,10 +41937,10 @@
         <v>1047</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -41972,10 +42040,10 @@
         <v>1047</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -42077,10 +42145,10 @@
         <v>1047</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -42184,10 +42252,10 @@
         <v>1047</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -42210,16 +42278,16 @@
         <v>82</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="O345" t="s" s="2">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="P345" s="2"/>
       <c r="Q345" t="s" s="2">
@@ -42269,7 +42337,7 @@
         <v>74</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="AH345" t="s" s="2">
         <v>81</v>
@@ -42289,10 +42357,10 @@
         <v>1047</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -42318,10 +42386,10 @@
         <v>101</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="O346" s="2"/>
       <c r="P346" s="2"/>
@@ -42351,28 +42419,28 @@
         <v>147</v>
       </c>
       <c r="Z346" t="s" s="2">
+        <v>1307</v>
+      </c>
+      <c r="AA346" t="s" s="2">
+        <v>1308</v>
+      </c>
+      <c r="AB346" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC346" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD346" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE346" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF346" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG346" t="s" s="2">
         <v>1305</v>
-      </c>
-      <c r="AA346" t="s" s="2">
-        <v>1306</v>
-      </c>
-      <c r="AB346" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC346" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD346" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE346" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF346" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG346" t="s" s="2">
-        <v>1303</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>81</v>
@@ -42389,13 +42457,13 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -42421,10 +42489,10 @@
         <v>75</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="O347" s="2"/>
       <c r="P347" s="2"/>
@@ -42475,7 +42543,7 @@
         <v>74</v>
       </c>
       <c r="AG347" t="s" s="2">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="AH347" t="s" s="2">
         <v>72</v>
@@ -42492,13 +42560,13 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -42597,13 +42665,13 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -42700,13 +42768,13 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -42805,13 +42873,13 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -42910,13 +42978,13 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -43015,13 +43083,13 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -43120,13 +43188,13 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -43225,13 +43293,13 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -43332,13 +43400,13 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -43352,7 +43420,7 @@
         <v>73</v>
       </c>
       <c r="I356" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J356" t="s" s="2">
         <v>74</v>
@@ -43361,7 +43429,7 @@
         <v>74</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="M356" t="s" s="2">
         <v>922</v>
@@ -43371,7 +43439,7 @@
       </c>
       <c r="O356" s="2"/>
       <c r="P356" t="s" s="2">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="Q356" t="s" s="2">
         <v>74</v>
@@ -43408,19 +43476,17 @@
         <v>74</v>
       </c>
       <c r="AC356" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD356" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="AD356" s="2"/>
       <c r="AE356" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF356" t="s" s="2">
-        <v>74</v>
+        <v>414</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>72</v>
@@ -43437,21 +43503,23 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1325</v>
-      </c>
-      <c r="D357" s="2"/>
+        <v>1324</v>
+      </c>
+      <c r="D357" t="s" s="2">
+        <v>1328</v>
+      </c>
       <c r="E357" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F357" s="2"/>
       <c r="G357" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H357" t="s" s="2">
         <v>81</v>
@@ -43463,29 +43531,25 @@
         <v>74</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>458</v>
+        <v>1325</v>
       </c>
       <c r="M357" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="N357" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="O357" s="2"/>
+      <c r="P357" t="s" s="2">
         <v>1326</v>
       </c>
-      <c r="N357" t="s" s="2">
-        <v>1327</v>
-      </c>
-      <c r="O357" t="s" s="2">
-        <v>1328</v>
-      </c>
-      <c r="P357" t="s" s="2">
-        <v>1329</v>
-      </c>
       <c r="Q357" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="R357" t="s" s="2">
-        <v>978</v>
-      </c>
+      <c r="R357" s="2"/>
       <c r="S357" t="s" s="2">
         <v>74</v>
       </c>
@@ -43529,16 +43593,16 @@
         <v>74</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI357" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AJ357" t="s" s="2">
-        <v>74</v>
+        <v>420</v>
       </c>
       <c r="AK357" t="s" s="2">
         <v>93</v>
@@ -43546,10 +43610,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C358" t="s" s="2">
         <v>1330</v>
@@ -43563,7 +43627,7 @@
         <v>72</v>
       </c>
       <c r="H358" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I358" t="s" s="2">
         <v>74</v>
@@ -43572,23 +43636,19 @@
         <v>74</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>1029</v>
+        <v>225</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>1331</v>
+        <v>226</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>1332</v>
-      </c>
-      <c r="O358" t="s" s="2">
-        <v>1333</v>
-      </c>
-      <c r="P358" t="s" s="2">
-        <v>1334</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O358" s="2"/>
+      <c r="P358" s="2"/>
       <c r="Q358" t="s" s="2">
         <v>74</v>
       </c>
@@ -43636,34 +43696,34 @@
         <v>74</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>1330</v>
+        <v>228</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI358" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ358" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK358" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="F359" s="2"/>
       <c r="G359" t="s" s="2">
@@ -43679,23 +43739,21 @@
         <v>74</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>997</v>
+        <v>125</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>1336</v>
+        <v>126</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>1337</v>
+        <v>230</v>
       </c>
       <c r="O359" t="s" s="2">
-        <v>1338</v>
-      </c>
-      <c r="P359" t="s" s="2">
-        <v>1339</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="P359" s="2"/>
       <c r="Q359" t="s" s="2">
         <v>74</v>
       </c>
@@ -43731,19 +43789,19 @@
         <v>74</v>
       </c>
       <c r="AC359" t="s" s="2">
-        <v>74</v>
+        <v>413</v>
       </c>
       <c r="AD359" t="s" s="2">
-        <v>74</v>
+        <v>483</v>
       </c>
       <c r="AE359" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF359" t="s" s="2">
-        <v>74</v>
+        <v>414</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>1335</v>
+        <v>231</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>72</v>
@@ -43755,18 +43813,18 @@
         <v>74</v>
       </c>
       <c r="AK359" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -43777,31 +43835,31 @@
         <v>72</v>
       </c>
       <c r="H360" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I360" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J360" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>1005</v>
+        <v>101</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>1006</v>
+        <v>930</v>
       </c>
       <c r="N360" t="s" s="2">
-        <v>1007</v>
+        <v>931</v>
       </c>
       <c r="O360" t="s" s="2">
-        <v>1008</v>
+        <v>932</v>
       </c>
       <c r="P360" t="s" s="2">
-        <v>1341</v>
+        <v>933</v>
       </c>
       <c r="Q360" t="s" s="2">
         <v>74</v>
@@ -43826,13 +43884,13 @@
         <v>74</v>
       </c>
       <c r="Y360" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="Z360" t="s" s="2">
-        <v>74</v>
+        <v>934</v>
       </c>
       <c r="AA360" t="s" s="2">
-        <v>74</v>
+        <v>935</v>
       </c>
       <c r="AB360" t="s" s="2">
         <v>74</v>
@@ -43850,16 +43908,16 @@
         <v>74</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>1340</v>
+        <v>936</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI360" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ360" t="s" s="2">
-        <v>420</v>
+        <v>74</v>
       </c>
       <c r="AK360" t="s" s="2">
         <v>93</v>
@@ -43867,13 +43925,13 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>1342</v>
+        <v>1335</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
@@ -43896,17 +43954,19 @@
         <v>82</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="M361" t="s" s="2">
-        <v>1145</v>
+        <v>939</v>
       </c>
       <c r="N361" t="s" s="2">
-        <v>1343</v>
-      </c>
-      <c r="O361" s="2"/>
+        <v>940</v>
+      </c>
+      <c r="O361" t="s" s="2">
+        <v>941</v>
+      </c>
       <c r="P361" t="s" s="2">
-        <v>1251</v>
+        <v>942</v>
       </c>
       <c r="Q361" t="s" s="2">
         <v>74</v>
@@ -43931,13 +43991,13 @@
         <v>74</v>
       </c>
       <c r="Y361" t="s" s="2">
-        <v>147</v>
+        <v>309</v>
       </c>
       <c r="Z361" t="s" s="2">
-        <v>1149</v>
+        <v>943</v>
       </c>
       <c r="AA361" t="s" s="2">
-        <v>1150</v>
+        <v>944</v>
       </c>
       <c r="AB361" t="s" s="2">
         <v>74</v>
@@ -43955,7 +44015,7 @@
         <v>74</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>1342</v>
+        <v>945</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>72</v>
@@ -43972,13 +44032,13 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -44001,17 +44061,19 @@
         <v>82</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>1152</v>
+        <v>95</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>1345</v>
+        <v>948</v>
       </c>
       <c r="N362" t="s" s="2">
-        <v>1346</v>
-      </c>
-      <c r="O362" s="2"/>
+        <v>949</v>
+      </c>
+      <c r="O362" t="s" s="2">
+        <v>950</v>
+      </c>
       <c r="P362" t="s" s="2">
-        <v>1347</v>
+        <v>951</v>
       </c>
       <c r="Q362" t="s" s="2">
         <v>74</v>
@@ -44021,10 +44083,10 @@
         <v>74</v>
       </c>
       <c r="T362" t="s" s="2">
-        <v>74</v>
+        <v>1339</v>
       </c>
       <c r="U362" t="s" s="2">
-        <v>74</v>
+        <v>953</v>
       </c>
       <c r="V362" t="s" s="2">
         <v>74</v>
@@ -44060,7 +44122,7 @@
         <v>74</v>
       </c>
       <c r="AG362" t="s" s="2">
-        <v>1344</v>
+        <v>954</v>
       </c>
       <c r="AH362" t="s" s="2">
         <v>72</v>
@@ -44077,13 +44139,13 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>1348</v>
+        <v>1341</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -44094,30 +44156,30 @@
         <v>72</v>
       </c>
       <c r="H363" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I363" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J363" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>1219</v>
+        <v>225</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>1349</v>
+        <v>957</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>1350</v>
-      </c>
-      <c r="O363" s="2"/>
-      <c r="P363" t="s" s="2">
-        <v>1351</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="O363" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="P363" s="2"/>
       <c r="Q363" t="s" s="2">
         <v>74</v>
       </c>
@@ -44129,7 +44191,7 @@
         <v>74</v>
       </c>
       <c r="U363" t="s" s="2">
-        <v>74</v>
+        <v>960</v>
       </c>
       <c r="V363" t="s" s="2">
         <v>74</v>
@@ -44165,13 +44227,13 @@
         <v>74</v>
       </c>
       <c r="AG363" t="s" s="2">
-        <v>1348</v>
+        <v>961</v>
       </c>
       <c r="AH363" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI363" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ363" t="s" s="2">
         <v>74</v>
@@ -44182,13 +44244,13 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -44199,7 +44261,7 @@
         <v>72</v>
       </c>
       <c r="H364" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I364" t="s" s="2">
         <v>74</v>
@@ -44208,16 +44270,16 @@
         <v>74</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>221</v>
+        <v>697</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>1353</v>
+        <v>964</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>1354</v>
+        <v>965</v>
       </c>
       <c r="O364" s="2"/>
       <c r="P364" s="2"/>
@@ -44268,30 +44330,30 @@
         <v>74</v>
       </c>
       <c r="AG364" t="s" s="2">
-        <v>1352</v>
+        <v>966</v>
       </c>
       <c r="AH364" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI364" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ364" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK364" t="s" s="2">
-        <v>1355</v>
+        <v>93</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>1356</v>
+        <v>1345</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -44311,18 +44373,20 @@
         <v>74</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>225</v>
+        <v>715</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>226</v>
+        <v>969</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O365" s="2"/>
+        <v>970</v>
+      </c>
+      <c r="O365" t="s" s="2">
+        <v>971</v>
+      </c>
       <c r="P365" s="2"/>
       <c r="Q365" t="s" s="2">
         <v>74</v>
@@ -44371,7 +44435,7 @@
         <v>74</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>228</v>
+        <v>972</v>
       </c>
       <c r="AH365" t="s" s="2">
         <v>72</v>
@@ -44383,18 +44447,18 @@
         <v>74</v>
       </c>
       <c r="AK365" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1357</v>
+        <v>1346</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>1357</v>
+        <v>1346</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -44405,7 +44469,7 @@
         <v>72</v>
       </c>
       <c r="H366" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I366" t="s" s="2">
         <v>74</v>
@@ -44414,23 +44478,29 @@
         <v>74</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>125</v>
+        <v>458</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>411</v>
+        <v>1347</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O366" s="2"/>
-      <c r="P366" s="2"/>
+        <v>1348</v>
+      </c>
+      <c r="O366" t="s" s="2">
+        <v>1349</v>
+      </c>
+      <c r="P366" t="s" s="2">
+        <v>1350</v>
+      </c>
       <c r="Q366" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="R366" s="2"/>
+      <c r="R366" t="s" s="2">
+        <v>978</v>
+      </c>
       <c r="S366" t="s" s="2">
         <v>74</v>
       </c>
@@ -44462,44 +44532,44 @@
         <v>74</v>
       </c>
       <c r="AC366" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AD366" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD366" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AE366" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF366" t="s" s="2">
-        <v>414</v>
+        <v>74</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>231</v>
+        <v>1346</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI366" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ366" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK366" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>1357</v>
-      </c>
-      <c r="D367" t="s" s="2">
-        <v>1359</v>
-      </c>
+        <v>1351</v>
+      </c>
+      <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
         <v>74</v>
       </c>
@@ -44508,7 +44578,7 @@
         <v>72</v>
       </c>
       <c r="H367" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I367" t="s" s="2">
         <v>74</v>
@@ -44517,19 +44587,23 @@
         <v>74</v>
       </c>
       <c r="K367" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>1360</v>
+        <v>1029</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>1361</v>
+        <v>1352</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O367" s="2"/>
-      <c r="P367" s="2"/>
+        <v>1353</v>
+      </c>
+      <c r="O367" t="s" s="2">
+        <v>1354</v>
+      </c>
+      <c r="P367" t="s" s="2">
+        <v>1355</v>
+      </c>
       <c r="Q367" t="s" s="2">
         <v>74</v>
       </c>
@@ -44577,7 +44651,7 @@
         <v>74</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>231</v>
+        <v>1351</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>72</v>
@@ -44586,25 +44660,23 @@
         <v>73</v>
       </c>
       <c r="AJ367" t="s" s="2">
-        <v>420</v>
+        <v>74</v>
       </c>
       <c r="AK367" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1357</v>
-      </c>
-      <c r="D368" t="s" s="2">
-        <v>1363</v>
-      </c>
+        <v>1356</v>
+      </c>
+      <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
         <v>74</v>
       </c>
@@ -44613,7 +44685,7 @@
         <v>72</v>
       </c>
       <c r="H368" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I368" t="s" s="2">
         <v>74</v>
@@ -44622,19 +44694,23 @@
         <v>74</v>
       </c>
       <c r="K368" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>1364</v>
+        <v>997</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>1366</v>
-      </c>
-      <c r="O368" s="2"/>
-      <c r="P368" s="2"/>
+        <v>1358</v>
+      </c>
+      <c r="O368" t="s" s="2">
+        <v>1359</v>
+      </c>
+      <c r="P368" t="s" s="2">
+        <v>1360</v>
+      </c>
       <c r="Q368" t="s" s="2">
         <v>74</v>
       </c>
@@ -44682,7 +44758,7 @@
         <v>74</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>231</v>
+        <v>1356</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>72</v>
@@ -44691,25 +44767,25 @@
         <v>73</v>
       </c>
       <c r="AJ368" t="s" s="2">
-        <v>420</v>
+        <v>74</v>
       </c>
       <c r="AK368" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="F369" s="2"/>
       <c r="G369" t="s" s="2">
@@ -44722,25 +44798,25 @@
         <v>74</v>
       </c>
       <c r="J369" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>125</v>
+        <v>1247</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>234</v>
+        <v>1362</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>235</v>
+        <v>1249</v>
       </c>
       <c r="O369" t="s" s="2">
-        <v>128</v>
+        <v>1203</v>
       </c>
       <c r="P369" t="s" s="2">
-        <v>134</v>
+        <v>1363</v>
       </c>
       <c r="Q369" t="s" s="2">
         <v>74</v>
@@ -44789,7 +44865,7 @@
         <v>74</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>236</v>
+        <v>1361</v>
       </c>
       <c r="AH369" t="s" s="2">
         <v>72</v>
@@ -44798,21 +44874,21 @@
         <v>73</v>
       </c>
       <c r="AJ369" t="s" s="2">
-        <v>74</v>
+        <v>420</v>
       </c>
       <c r="AK369" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -44823,7 +44899,7 @@
         <v>72</v>
       </c>
       <c r="H370" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I370" t="s" s="2">
         <v>74</v>
@@ -44832,20 +44908,20 @@
         <v>74</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>1369</v>
+        <v>101</v>
       </c>
       <c r="M370" t="s" s="2">
-        <v>922</v>
+        <v>1145</v>
       </c>
       <c r="N370" t="s" s="2">
-        <v>923</v>
+        <v>1365</v>
       </c>
       <c r="O370" s="2"/>
       <c r="P370" t="s" s="2">
-        <v>1370</v>
+        <v>1253</v>
       </c>
       <c r="Q370" t="s" s="2">
         <v>74</v>
@@ -44870,13 +44946,13 @@
         <v>74</v>
       </c>
       <c r="Y370" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="Z370" t="s" s="2">
-        <v>74</v>
+        <v>1149</v>
       </c>
       <c r="AA370" t="s" s="2">
-        <v>74</v>
+        <v>1150</v>
       </c>
       <c r="AB370" t="s" s="2">
         <v>74</v>
@@ -44894,16 +44970,16 @@
         <v>74</v>
       </c>
       <c r="AG370" t="s" s="2">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="AH370" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI370" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ370" t="s" s="2">
-        <v>420</v>
+        <v>74</v>
       </c>
       <c r="AK370" t="s" s="2">
         <v>93</v>
@@ -44911,13 +44987,13 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -44925,7 +45001,7 @@
       </c>
       <c r="F371" s="2"/>
       <c r="G371" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H371" t="s" s="2">
         <v>81</v>
@@ -44937,19 +45013,21 @@
         <v>74</v>
       </c>
       <c r="K371" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>143</v>
+        <v>1152</v>
       </c>
       <c r="M371" t="s" s="2">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="N371" t="s" s="2">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="O371" s="2"/>
-      <c r="P371" s="2"/>
+      <c r="P371" t="s" s="2">
+        <v>1369</v>
+      </c>
       <c r="Q371" t="s" s="2">
         <v>74</v>
       </c>
@@ -44973,11 +45051,13 @@
         <v>74</v>
       </c>
       <c r="Y371" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z371" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Z371" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AA371" t="s" s="2">
-        <v>1374</v>
+        <v>74</v>
       </c>
       <c r="AB371" t="s" s="2">
         <v>74</v>
@@ -44995,10 +45075,10 @@
         <v>74</v>
       </c>
       <c r="AG371" t="s" s="2">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="AH371" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AI371" t="s" s="2">
         <v>81</v>
@@ -45012,13 +45092,13 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -45029,7 +45109,7 @@
         <v>72</v>
       </c>
       <c r="H372" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I372" t="s" s="2">
         <v>74</v>
@@ -45041,17 +45121,17 @@
         <v>74</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>697</v>
+        <v>1219</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="N372" t="s" s="2">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="O372" s="2"/>
       <c r="P372" t="s" s="2">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="Q372" t="s" s="2">
         <v>74</v>
@@ -45100,13 +45180,13 @@
         <v>74</v>
       </c>
       <c r="AG372" t="s" s="2">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="AH372" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI372" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AJ372" t="s" s="2">
         <v>74</v>
@@ -45117,13 +45197,13 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -45134,7 +45214,7 @@
         <v>72</v>
       </c>
       <c r="H373" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I373" t="s" s="2">
         <v>74</v>
@@ -45146,13 +45226,13 @@
         <v>74</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>715</v>
+        <v>221</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="O373" s="2"/>
       <c r="P373" s="2"/>
@@ -45203,30 +45283,30 @@
         <v>74</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI373" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AJ373" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK373" t="s" s="2">
-        <v>93</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
@@ -45237,7 +45317,7 @@
         <v>72</v>
       </c>
       <c r="H374" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I374" t="s" s="2">
         <v>74</v>
@@ -45249,20 +45329,16 @@
         <v>74</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="M374" t="s" s="2">
-        <v>1383</v>
+        <v>226</v>
       </c>
       <c r="N374" t="s" s="2">
-        <v>1384</v>
-      </c>
-      <c r="O374" t="s" s="2">
-        <v>1385</v>
-      </c>
-      <c r="P374" t="s" s="2">
-        <v>1386</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O374" s="2"/>
+      <c r="P374" s="2"/>
       <c r="Q374" t="s" s="2">
         <v>74</v>
       </c>
@@ -45286,11 +45362,13 @@
         <v>74</v>
       </c>
       <c r="Y374" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="Z374" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Z374" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AA374" t="s" s="2">
-        <v>1273</v>
+        <v>74</v>
       </c>
       <c r="AB374" t="s" s="2">
         <v>74</v>
@@ -45308,30 +45386,30 @@
         <v>74</v>
       </c>
       <c r="AG374" t="s" s="2">
-        <v>1382</v>
+        <v>228</v>
       </c>
       <c r="AH374" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI374" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ374" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK374" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>1387</v>
+        <v>1309</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1390</v>
+        <v>1379</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1390</v>
+        <v>1379</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
@@ -45354,13 +45432,13 @@
         <v>74</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>1392</v>
+        <v>411</v>
       </c>
       <c r="N375" t="s" s="2">
-        <v>1393</v>
+        <v>412</v>
       </c>
       <c r="O375" s="2"/>
       <c r="P375" s="2"/>
@@ -45399,19 +45477,17 @@
         <v>74</v>
       </c>
       <c r="AC375" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD375" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="AD375" s="2"/>
       <c r="AE375" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF375" t="s" s="2">
-        <v>74</v>
+        <v>414</v>
       </c>
       <c r="AG375" t="s" s="2">
-        <v>1390</v>
+        <v>231</v>
       </c>
       <c r="AH375" t="s" s="2">
         <v>72</v>
@@ -45423,20 +45499,22 @@
         <v>74</v>
       </c>
       <c r="AK375" t="s" s="2">
-        <v>403</v>
+        <v>130</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>1387</v>
+        <v>1309</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1394</v>
+        <v>1380</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1394</v>
-      </c>
-      <c r="D376" s="2"/>
+        <v>1379</v>
+      </c>
+      <c r="D376" t="s" s="2">
+        <v>1381</v>
+      </c>
       <c r="E376" t="s" s="2">
         <v>74</v>
       </c>
@@ -45454,20 +45532,18 @@
         <v>74</v>
       </c>
       <c r="K376" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L376" t="s" s="2">
-        <v>83</v>
+        <v>1382</v>
       </c>
       <c r="M376" t="s" s="2">
-        <v>84</v>
+        <v>1383</v>
       </c>
       <c r="N376" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O376" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="O376" s="2"/>
       <c r="P376" s="2"/>
       <c r="Q376" t="s" s="2">
         <v>74</v>
@@ -45516,32 +45592,34 @@
         <v>74</v>
       </c>
       <c r="AG376" t="s" s="2">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="AH376" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI376" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AJ376" t="s" s="2">
-        <v>74</v>
+        <v>420</v>
       </c>
       <c r="AK376" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>1387</v>
+        <v>1309</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1395</v>
+        <v>1384</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1395</v>
-      </c>
-      <c r="D377" s="2"/>
+        <v>1379</v>
+      </c>
+      <c r="D377" t="s" s="2">
+        <v>1385</v>
+      </c>
       <c r="E377" t="s" s="2">
         <v>74</v>
       </c>
@@ -45559,16 +45637,16 @@
         <v>74</v>
       </c>
       <c r="K377" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>89</v>
+        <v>1386</v>
       </c>
       <c r="M377" t="s" s="2">
-        <v>90</v>
+        <v>1387</v>
       </c>
       <c r="N377" t="s" s="2">
-        <v>91</v>
+        <v>1388</v>
       </c>
       <c r="O377" s="2"/>
       <c r="P377" s="2"/>
@@ -45619,41 +45697,41 @@
         <v>74</v>
       </c>
       <c r="AG377" t="s" s="2">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="AH377" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI377" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AJ377" t="s" s="2">
-        <v>74</v>
+        <v>420</v>
       </c>
       <c r="AK377" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>1387</v>
+        <v>1309</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="F378" s="2"/>
       <c r="G378" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H378" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I378" t="s" s="2">
         <v>74</v>
@@ -45665,18 +45743,20 @@
         <v>82</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="N378" t="s" s="2">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="O378" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="P378" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="P378" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="Q378" t="s" s="2">
         <v>74</v>
       </c>
@@ -45724,30 +45804,30 @@
         <v>74</v>
       </c>
       <c r="AG378" t="s" s="2">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="AH378" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI378" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AJ378" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK378" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>1387</v>
+        <v>1309</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -45758,7 +45838,7 @@
         <v>72</v>
       </c>
       <c r="H379" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I379" t="s" s="2">
         <v>74</v>
@@ -45770,18 +45850,18 @@
         <v>74</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>101</v>
+        <v>1391</v>
       </c>
       <c r="M379" t="s" s="2">
-        <v>102</v>
+        <v>922</v>
       </c>
       <c r="N379" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O379" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="P379" s="2"/>
+        <v>923</v>
+      </c>
+      <c r="O379" s="2"/>
+      <c r="P379" t="s" s="2">
+        <v>1392</v>
+      </c>
       <c r="Q379" t="s" s="2">
         <v>74</v>
       </c>
@@ -45805,13 +45885,13 @@
         <v>74</v>
       </c>
       <c r="Y379" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="Z379" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AA379" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AB379" t="s" s="2">
         <v>74</v>
@@ -45829,16 +45909,16 @@
         <v>74</v>
       </c>
       <c r="AG379" t="s" s="2">
-        <v>108</v>
+        <v>1390</v>
       </c>
       <c r="AH379" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI379" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AJ379" t="s" s="2">
-        <v>74</v>
+        <v>420</v>
       </c>
       <c r="AK379" t="s" s="2">
         <v>93</v>
@@ -45846,21 +45926,21 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>1387</v>
+        <v>1309</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="F380" s="2"/>
       <c r="G380" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H380" t="s" s="2">
         <v>81</v>
@@ -45875,17 +45955,15 @@
         <v>74</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="M380" t="s" s="2">
-        <v>112</v>
+        <v>1394</v>
       </c>
       <c r="N380" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O380" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>1395</v>
+      </c>
+      <c r="O380" s="2"/>
       <c r="P380" s="2"/>
       <c r="Q380" t="s" s="2">
         <v>74</v>
@@ -45910,13 +45988,11 @@
         <v>74</v>
       </c>
       <c r="Y380" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z380" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z380" s="2"/>
       <c r="AA380" t="s" s="2">
-        <v>74</v>
+        <v>1396</v>
       </c>
       <c r="AB380" t="s" s="2">
         <v>74</v>
@@ -45934,10 +46010,10 @@
         <v>74</v>
       </c>
       <c r="AG380" t="s" s="2">
-        <v>115</v>
+        <v>1393</v>
       </c>
       <c r="AH380" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI380" t="s" s="2">
         <v>81</v>
@@ -45951,24 +46027,24 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>1387</v>
+        <v>1309</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="F381" s="2"/>
       <c r="G381" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H381" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I381" t="s" s="2">
         <v>74</v>
@@ -45980,18 +46056,18 @@
         <v>74</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>118</v>
+        <v>697</v>
       </c>
       <c r="M381" t="s" s="2">
-        <v>119</v>
+        <v>1398</v>
       </c>
       <c r="N381" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="O381" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="P381" s="2"/>
+        <v>1399</v>
+      </c>
+      <c r="O381" s="2"/>
+      <c r="P381" t="s" s="2">
+        <v>1400</v>
+      </c>
       <c r="Q381" t="s" s="2">
         <v>74</v>
       </c>
@@ -46039,41 +46115,41 @@
         <v>74</v>
       </c>
       <c r="AG381" t="s" s="2">
-        <v>122</v>
+        <v>1397</v>
       </c>
       <c r="AH381" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI381" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ381" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK381" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>1387</v>
+        <v>1309</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="F382" s="2"/>
       <c r="G382" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H382" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I382" t="s" s="2">
         <v>74</v>
@@ -46085,17 +46161,15 @@
         <v>74</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>125</v>
+        <v>715</v>
       </c>
       <c r="M382" t="s" s="2">
-        <v>126</v>
+        <v>1402</v>
       </c>
       <c r="N382" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="O382" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>1403</v>
+      </c>
+      <c r="O382" s="2"/>
       <c r="P382" s="2"/>
       <c r="Q382" t="s" s="2">
         <v>74</v>
@@ -46144,34 +46218,34 @@
         <v>74</v>
       </c>
       <c r="AG382" t="s" s="2">
-        <v>129</v>
+        <v>1401</v>
       </c>
       <c r="AH382" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI382" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ382" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK382" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>1387</v>
+        <v>1309</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="F383" s="2"/>
       <c r="G383" t="s" s="2">
@@ -46184,25 +46258,25 @@
         <v>74</v>
       </c>
       <c r="J383" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K383" t="s" s="2">
         <v>74</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>132</v>
+        <v>1405</v>
       </c>
       <c r="N383" t="s" s="2">
-        <v>133</v>
+        <v>1406</v>
       </c>
       <c r="O383" t="s" s="2">
-        <v>128</v>
+        <v>1407</v>
       </c>
       <c r="P383" t="s" s="2">
-        <v>134</v>
+        <v>1408</v>
       </c>
       <c r="Q383" t="s" s="2">
         <v>74</v>
@@ -46227,13 +46301,11 @@
         <v>74</v>
       </c>
       <c r="Y383" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z383" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="Z383" s="2"/>
       <c r="AA383" t="s" s="2">
-        <v>74</v>
+        <v>1275</v>
       </c>
       <c r="AB383" t="s" s="2">
         <v>74</v>
@@ -46251,7 +46323,7 @@
         <v>74</v>
       </c>
       <c r="AG383" t="s" s="2">
-        <v>135</v>
+        <v>1404</v>
       </c>
       <c r="AH383" t="s" s="2">
         <v>72</v>
@@ -46263,18 +46335,18 @@
         <v>74</v>
       </c>
       <c r="AK383" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1402</v>
+        <v>1412</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>1402</v>
+        <v>1412</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
@@ -46282,13 +46354,13 @@
       </c>
       <c r="F384" s="2"/>
       <c r="G384" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H384" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I384" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J384" t="s" s="2">
         <v>74</v>
@@ -46297,18 +46369,16 @@
         <v>74</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>1403</v>
+        <v>75</v>
       </c>
       <c r="M384" t="s" s="2">
-        <v>1404</v>
+        <v>1414</v>
       </c>
       <c r="N384" t="s" s="2">
-        <v>1405</v>
+        <v>1415</v>
       </c>
       <c r="O384" s="2"/>
-      <c r="P384" t="s" s="2">
-        <v>1324</v>
-      </c>
+      <c r="P384" s="2"/>
       <c r="Q384" t="s" s="2">
         <v>74</v>
       </c>
@@ -46356,7 +46426,7 @@
         <v>74</v>
       </c>
       <c r="AG384" t="s" s="2">
-        <v>1402</v>
+        <v>1412</v>
       </c>
       <c r="AH384" t="s" s="2">
         <v>72</v>
@@ -46365,21 +46435,21 @@
         <v>73</v>
       </c>
       <c r="AJ384" t="s" s="2">
-        <v>420</v>
+        <v>74</v>
       </c>
       <c r="AK384" t="s" s="2">
-        <v>93</v>
+        <v>403</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1406</v>
+        <v>1416</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>1406</v>
+        <v>1416</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
@@ -46402,26 +46472,22 @@
         <v>82</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>458</v>
+        <v>83</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>1407</v>
+        <v>84</v>
       </c>
       <c r="N385" t="s" s="2">
-        <v>1408</v>
+        <v>85</v>
       </c>
       <c r="O385" t="s" s="2">
-        <v>1409</v>
-      </c>
-      <c r="P385" t="s" s="2">
-        <v>1410</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P385" s="2"/>
       <c r="Q385" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="R385" t="s" s="2">
-        <v>978</v>
-      </c>
+      <c r="R385" s="2"/>
       <c r="S385" t="s" s="2">
         <v>74</v>
       </c>
@@ -46465,7 +46531,7 @@
         <v>74</v>
       </c>
       <c r="AG385" t="s" s="2">
-        <v>1406</v>
+        <v>87</v>
       </c>
       <c r="AH385" t="s" s="2">
         <v>72</v>
@@ -46477,18 +46543,18 @@
         <v>74</v>
       </c>
       <c r="AK385" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1411</v>
+        <v>1417</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>1411</v>
+        <v>1417</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
@@ -46511,18 +46577,16 @@
         <v>82</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>697</v>
+        <v>89</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>1412</v>
+        <v>90</v>
       </c>
       <c r="N386" t="s" s="2">
-        <v>1413</v>
+        <v>91</v>
       </c>
       <c r="O386" s="2"/>
-      <c r="P386" t="s" s="2">
-        <v>1414</v>
-      </c>
+      <c r="P386" s="2"/>
       <c r="Q386" t="s" s="2">
         <v>74</v>
       </c>
@@ -46570,7 +46634,7 @@
         <v>74</v>
       </c>
       <c r="AG386" t="s" s="2">
-        <v>1411</v>
+        <v>92</v>
       </c>
       <c r="AH386" t="s" s="2">
         <v>72</v>
@@ -46587,13 +46651,13 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
@@ -46610,21 +46674,23 @@
         <v>74</v>
       </c>
       <c r="J387" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K387" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>1416</v>
+        <v>95</v>
       </c>
       <c r="M387" t="s" s="2">
-        <v>1417</v>
+        <v>96</v>
       </c>
       <c r="N387" t="s" s="2">
-        <v>1418</v>
-      </c>
-      <c r="O387" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O387" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="P387" s="2"/>
       <c r="Q387" t="s" s="2">
         <v>74</v>
@@ -46673,7 +46739,7 @@
         <v>74</v>
       </c>
       <c r="AG387" t="s" s="2">
-        <v>1415</v>
+        <v>99</v>
       </c>
       <c r="AH387" t="s" s="2">
         <v>72</v>
@@ -46690,7 +46756,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>1419</v>
@@ -46716,18 +46782,20 @@
         <v>74</v>
       </c>
       <c r="K388" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L388" t="s" s="2">
-        <v>1420</v>
+        <v>101</v>
       </c>
       <c r="M388" t="s" s="2">
-        <v>1421</v>
+        <v>102</v>
       </c>
       <c r="N388" t="s" s="2">
-        <v>1422</v>
-      </c>
-      <c r="O388" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="O388" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P388" s="2"/>
       <c r="Q388" t="s" s="2">
         <v>74</v>
@@ -46752,13 +46820,13 @@
         <v>74</v>
       </c>
       <c r="Y388" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="Z388" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AA388" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AB388" t="s" s="2">
         <v>74</v>
@@ -46776,7 +46844,7 @@
         <v>74</v>
       </c>
       <c r="AG388" t="s" s="2">
-        <v>1419</v>
+        <v>108</v>
       </c>
       <c r="AH388" t="s" s="2">
         <v>72</v>
@@ -46793,24 +46861,24 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="F389" s="2"/>
       <c r="G389" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H389" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I389" t="s" s="2">
         <v>74</v>
@@ -46819,23 +46887,21 @@
         <v>74</v>
       </c>
       <c r="K389" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L389" t="s" s="2">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="M389" t="s" s="2">
-        <v>1424</v>
+        <v>112</v>
       </c>
       <c r="N389" t="s" s="2">
-        <v>1425</v>
+        <v>113</v>
       </c>
       <c r="O389" t="s" s="2">
-        <v>1426</v>
-      </c>
-      <c r="P389" t="s" s="2">
-        <v>1427</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="P389" s="2"/>
       <c r="Q389" t="s" s="2">
         <v>74</v>
       </c>
@@ -46859,11 +46925,13 @@
         <v>74</v>
       </c>
       <c r="Y389" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z389" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Z389" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AA389" t="s" s="2">
-        <v>1428</v>
+        <v>74</v>
       </c>
       <c r="AB389" t="s" s="2">
         <v>74</v>
@@ -46881,13 +46949,13 @@
         <v>74</v>
       </c>
       <c r="AG389" t="s" s="2">
-        <v>1423</v>
+        <v>115</v>
       </c>
       <c r="AH389" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI389" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ389" t="s" s="2">
         <v>74</v>
@@ -46898,17 +46966,17 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="F390" s="2"/>
       <c r="G390" t="s" s="2">
@@ -46924,18 +46992,20 @@
         <v>74</v>
       </c>
       <c r="K390" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L390" t="s" s="2">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="M390" t="s" s="2">
-        <v>1430</v>
+        <v>119</v>
       </c>
       <c r="N390" t="s" s="2">
-        <v>1431</v>
-      </c>
-      <c r="O390" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="O390" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P390" s="2"/>
       <c r="Q390" t="s" s="2">
         <v>74</v>
@@ -46960,11 +47030,13 @@
         <v>74</v>
       </c>
       <c r="Y390" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Z390" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Z390" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AA390" t="s" s="2">
-        <v>1432</v>
+        <v>74</v>
       </c>
       <c r="AB390" t="s" s="2">
         <v>74</v>
@@ -46982,7 +47054,7 @@
         <v>74</v>
       </c>
       <c r="AG390" t="s" s="2">
-        <v>1429</v>
+        <v>122</v>
       </c>
       <c r="AH390" t="s" s="2">
         <v>72</v>
@@ -46994,22 +47066,22 @@
         <v>74</v>
       </c>
       <c r="AK390" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>1433</v>
+        <v>1422</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>1433</v>
+        <v>1422</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="F391" s="2"/>
       <c r="G391" t="s" s="2">
@@ -47025,18 +47097,20 @@
         <v>74</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>1434</v>
+        <v>125</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>1435</v>
+        <v>126</v>
       </c>
       <c r="N391" t="s" s="2">
-        <v>1436</v>
-      </c>
-      <c r="O391" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="O391" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="P391" s="2"/>
       <c r="Q391" t="s" s="2">
         <v>74</v>
@@ -47085,7 +47159,7 @@
         <v>74</v>
       </c>
       <c r="AG391" t="s" s="2">
-        <v>1433</v>
+        <v>129</v>
       </c>
       <c r="AH391" t="s" s="2">
         <v>72</v>
@@ -47097,22 +47171,22 @@
         <v>74</v>
       </c>
       <c r="AK391" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>1437</v>
+        <v>1423</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>1437</v>
+        <v>1423</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="F392" s="2"/>
       <c r="G392" t="s" s="2">
@@ -47125,22 +47199,26 @@
         <v>74</v>
       </c>
       <c r="J392" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K392" t="s" s="2">
         <v>74</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>1438</v>
+        <v>125</v>
       </c>
       <c r="M392" t="s" s="2">
-        <v>1439</v>
+        <v>132</v>
       </c>
       <c r="N392" t="s" s="2">
-        <v>1440</v>
-      </c>
-      <c r="O392" s="2"/>
-      <c r="P392" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="O392" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P392" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="Q392" t="s" s="2">
         <v>74</v>
       </c>
@@ -47188,7 +47266,7 @@
         <v>74</v>
       </c>
       <c r="AG392" t="s" s="2">
-        <v>1437</v>
+        <v>135</v>
       </c>
       <c r="AH392" t="s" s="2">
         <v>72</v>
@@ -47200,18 +47278,18 @@
         <v>74</v>
       </c>
       <c r="AK392" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1441</v>
+        <v>1424</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>1441</v>
+        <v>1424</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
@@ -47219,32 +47297,32 @@
       </c>
       <c r="F393" s="2"/>
       <c r="G393" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H393" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I393" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J393" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K393" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>997</v>
+        <v>1425</v>
       </c>
       <c r="M393" t="s" s="2">
-        <v>1442</v>
+        <v>1426</v>
       </c>
       <c r="N393" t="s" s="2">
-        <v>1443</v>
+        <v>1427</v>
       </c>
       <c r="O393" s="2"/>
       <c r="P393" t="s" s="2">
-        <v>1444</v>
+        <v>1326</v>
       </c>
       <c r="Q393" t="s" s="2">
         <v>74</v>
@@ -47293,7 +47371,7 @@
         <v>74</v>
       </c>
       <c r="AG393" t="s" s="2">
-        <v>1441</v>
+        <v>1424</v>
       </c>
       <c r="AH393" t="s" s="2">
         <v>72</v>
@@ -47302,7 +47380,7 @@
         <v>73</v>
       </c>
       <c r="AJ393" t="s" s="2">
-        <v>74</v>
+        <v>420</v>
       </c>
       <c r="AK393" t="s" s="2">
         <v>93</v>
@@ -47310,13 +47388,13 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1445</v>
+        <v>1428</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>1445</v>
+        <v>1428</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
@@ -47327,7 +47405,7 @@
         <v>72</v>
       </c>
       <c r="H394" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I394" t="s" s="2">
         <v>74</v>
@@ -47336,25 +47414,29 @@
         <v>74</v>
       </c>
       <c r="K394" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>221</v>
+        <v>458</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>1446</v>
+        <v>1429</v>
       </c>
       <c r="N394" t="s" s="2">
-        <v>1447</v>
+        <v>1430</v>
       </c>
       <c r="O394" t="s" s="2">
-        <v>1448</v>
-      </c>
-      <c r="P394" s="2"/>
+        <v>1431</v>
+      </c>
+      <c r="P394" t="s" s="2">
+        <v>1432</v>
+      </c>
       <c r="Q394" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="R394" s="2"/>
+      <c r="R394" t="s" s="2">
+        <v>978</v>
+      </c>
       <c r="S394" t="s" s="2">
         <v>74</v>
       </c>
@@ -47398,13 +47480,13 @@
         <v>74</v>
       </c>
       <c r="AG394" t="s" s="2">
-        <v>1445</v>
+        <v>1428</v>
       </c>
       <c r="AH394" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI394" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ394" t="s" s="2">
         <v>74</v>
@@ -47415,13 +47497,13 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1449</v>
+        <v>1433</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>1449</v>
+        <v>1433</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
@@ -47441,19 +47523,21 @@
         <v>74</v>
       </c>
       <c r="K395" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>225</v>
+        <v>697</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>226</v>
+        <v>1434</v>
       </c>
       <c r="N395" t="s" s="2">
-        <v>227</v>
+        <v>1435</v>
       </c>
       <c r="O395" s="2"/>
-      <c r="P395" s="2"/>
+      <c r="P395" t="s" s="2">
+        <v>1436</v>
+      </c>
       <c r="Q395" t="s" s="2">
         <v>74</v>
       </c>
@@ -47501,7 +47585,7 @@
         <v>74</v>
       </c>
       <c r="AG395" t="s" s="2">
-        <v>228</v>
+        <v>1433</v>
       </c>
       <c r="AH395" t="s" s="2">
         <v>72</v>
@@ -47513,29 +47597,29 @@
         <v>74</v>
       </c>
       <c r="AK395" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1450</v>
+        <v>1437</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>1450</v>
+        <v>1437</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="F396" s="2"/>
       <c r="G396" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H396" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I396" t="s" s="2">
         <v>74</v>
@@ -47544,20 +47628,18 @@
         <v>74</v>
       </c>
       <c r="K396" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>125</v>
+        <v>1438</v>
       </c>
       <c r="M396" t="s" s="2">
-        <v>126</v>
+        <v>1439</v>
       </c>
       <c r="N396" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O396" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>1440</v>
+      </c>
+      <c r="O396" s="2"/>
       <c r="P396" s="2"/>
       <c r="Q396" t="s" s="2">
         <v>74</v>
@@ -47606,66 +47688,62 @@
         <v>74</v>
       </c>
       <c r="AG396" t="s" s="2">
-        <v>231</v>
+        <v>1437</v>
       </c>
       <c r="AH396" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI396" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ396" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK396" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1451</v>
+        <v>1441</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1451</v>
+        <v>1441</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="F397" s="2"/>
       <c r="G397" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H397" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I397" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J397" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K397" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L397" t="s" s="2">
-        <v>125</v>
+        <v>1442</v>
       </c>
       <c r="M397" t="s" s="2">
-        <v>234</v>
+        <v>1443</v>
       </c>
       <c r="N397" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O397" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P397" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>1444</v>
+      </c>
+      <c r="O397" s="2"/>
+      <c r="P397" s="2"/>
       <c r="Q397" t="s" s="2">
         <v>74</v>
       </c>
@@ -47713,30 +47791,30 @@
         <v>74</v>
       </c>
       <c r="AG397" t="s" s="2">
-        <v>236</v>
+        <v>1441</v>
       </c>
       <c r="AH397" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI397" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ397" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK397" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1452</v>
+        <v>1445</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1452</v>
+        <v>1445</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
@@ -47756,19 +47834,23 @@
         <v>74</v>
       </c>
       <c r="K398" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L398" t="s" s="2">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="M398" t="s" s="2">
-        <v>1453</v>
+        <v>1446</v>
       </c>
       <c r="N398" t="s" s="2">
-        <v>1454</v>
-      </c>
-      <c r="O398" s="2"/>
-      <c r="P398" s="2"/>
+        <v>1447</v>
+      </c>
+      <c r="O398" t="s" s="2">
+        <v>1448</v>
+      </c>
+      <c r="P398" t="s" s="2">
+        <v>1449</v>
+      </c>
       <c r="Q398" t="s" s="2">
         <v>74</v>
       </c>
@@ -47792,13 +47874,11 @@
         <v>74</v>
       </c>
       <c r="Y398" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="Z398" t="s" s="2">
-        <v>1455</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z398" s="2"/>
       <c r="AA398" t="s" s="2">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="AB398" t="s" s="2">
         <v>74</v>
@@ -47816,7 +47896,7 @@
         <v>74</v>
       </c>
       <c r="AG398" t="s" s="2">
-        <v>1452</v>
+        <v>1445</v>
       </c>
       <c r="AH398" t="s" s="2">
         <v>72</v>
@@ -47833,13 +47913,13 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
@@ -47850,7 +47930,7 @@
         <v>72</v>
       </c>
       <c r="H399" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I399" t="s" s="2">
         <v>74</v>
@@ -47859,16 +47939,16 @@
         <v>74</v>
       </c>
       <c r="K399" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L399" t="s" s="2">
-        <v>458</v>
+        <v>143</v>
       </c>
       <c r="M399" t="s" s="2">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="N399" t="s" s="2">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="O399" s="2"/>
       <c r="P399" s="2"/>
@@ -47895,13 +47975,11 @@
         <v>74</v>
       </c>
       <c r="Y399" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z399" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z399" s="2"/>
       <c r="AA399" t="s" s="2">
-        <v>74</v>
+        <v>1454</v>
       </c>
       <c r="AB399" t="s" s="2">
         <v>74</v>
@@ -47919,13 +47997,13 @@
         <v>74</v>
       </c>
       <c r="AG399" t="s" s="2">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="AH399" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI399" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AJ399" t="s" s="2">
         <v>74</v>
@@ -47936,13 +48014,13 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
@@ -47953,7 +48031,7 @@
         <v>72</v>
       </c>
       <c r="H400" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I400" t="s" s="2">
         <v>74</v>
@@ -47962,20 +48040,18 @@
         <v>74</v>
       </c>
       <c r="K400" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L400" t="s" s="2">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="M400" t="s" s="2">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="N400" t="s" s="2">
-        <v>1463</v>
-      </c>
-      <c r="O400" t="s" s="2">
-        <v>1464</v>
-      </c>
+        <v>1458</v>
+      </c>
+      <c r="O400" s="2"/>
       <c r="P400" s="2"/>
       <c r="Q400" t="s" s="2">
         <v>74</v>
@@ -48024,13 +48100,13 @@
         <v>74</v>
       </c>
       <c r="AG400" t="s" s="2">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="AH400" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI400" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AJ400" t="s" s="2">
         <v>74</v>
@@ -48041,13 +48117,13 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
@@ -48058,7 +48134,7 @@
         <v>72</v>
       </c>
       <c r="H401" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I401" t="s" s="2">
         <v>74</v>
@@ -48070,13 +48146,13 @@
         <v>74</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>225</v>
+        <v>1460</v>
       </c>
       <c r="M401" t="s" s="2">
-        <v>1158</v>
+        <v>1461</v>
       </c>
       <c r="N401" t="s" s="2">
-        <v>1159</v>
+        <v>1462</v>
       </c>
       <c r="O401" s="2"/>
       <c r="P401" s="2"/>
@@ -48127,30 +48203,30 @@
         <v>74</v>
       </c>
       <c r="AG401" t="s" s="2">
-        <v>228</v>
+        <v>1459</v>
       </c>
       <c r="AH401" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI401" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AJ401" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK401" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
@@ -48170,19 +48246,21 @@
         <v>74</v>
       </c>
       <c r="K402" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>125</v>
+        <v>997</v>
       </c>
       <c r="M402" t="s" s="2">
-        <v>411</v>
+        <v>1464</v>
       </c>
       <c r="N402" t="s" s="2">
-        <v>412</v>
+        <v>1465</v>
       </c>
       <c r="O402" s="2"/>
-      <c r="P402" s="2"/>
+      <c r="P402" t="s" s="2">
+        <v>1466</v>
+      </c>
       <c r="Q402" t="s" s="2">
         <v>74</v>
       </c>
@@ -48218,17 +48296,19 @@
         <v>74</v>
       </c>
       <c r="AC402" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AD402" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD402" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AE402" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF402" t="s" s="2">
-        <v>414</v>
+        <v>74</v>
       </c>
       <c r="AG402" t="s" s="2">
-        <v>231</v>
+        <v>1463</v>
       </c>
       <c r="AH402" t="s" s="2">
         <v>72</v>
@@ -48240,22 +48320,20 @@
         <v>74</v>
       </c>
       <c r="AK402" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>1467</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1466</v>
-      </c>
-      <c r="D403" t="s" s="2">
-        <v>1468</v>
-      </c>
+        <v>1467</v>
+      </c>
+      <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
         <v>74</v>
       </c>
@@ -48264,7 +48342,7 @@
         <v>72</v>
       </c>
       <c r="H403" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I403" t="s" s="2">
         <v>74</v>
@@ -48276,15 +48354,17 @@
         <v>74</v>
       </c>
       <c r="L403" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M403" t="s" s="2">
+        <v>1468</v>
+      </c>
+      <c r="N403" t="s" s="2">
         <v>1469</v>
       </c>
-      <c r="M403" t="s" s="2">
+      <c r="O403" t="s" s="2">
         <v>1470</v>
       </c>
-      <c r="N403" t="s" s="2">
-        <v>1471</v>
-      </c>
-      <c r="O403" s="2"/>
       <c r="P403" s="2"/>
       <c r="Q403" t="s" s="2">
         <v>74</v>
@@ -48333,7 +48413,7 @@
         <v>74</v>
       </c>
       <c r="AG403" t="s" s="2">
-        <v>231</v>
+        <v>1467</v>
       </c>
       <c r="AH403" t="s" s="2">
         <v>72</v>
@@ -48342,21 +48422,21 @@
         <v>73</v>
       </c>
       <c r="AJ403" t="s" s="2">
-        <v>420</v>
+        <v>74</v>
       </c>
       <c r="AK403" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -48379,13 +48459,13 @@
         <v>74</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>1461</v>
+        <v>225</v>
       </c>
       <c r="M404" t="s" s="2">
-        <v>1473</v>
+        <v>226</v>
       </c>
       <c r="N404" t="s" s="2">
-        <v>1174</v>
+        <v>227</v>
       </c>
       <c r="O404" s="2"/>
       <c r="P404" s="2"/>
@@ -48436,7 +48516,7 @@
         <v>74</v>
       </c>
       <c r="AG404" t="s" s="2">
-        <v>1474</v>
+        <v>228</v>
       </c>
       <c r="AH404" t="s" s="2">
         <v>72</v>
@@ -48453,24 +48533,24 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" t="s" s="2">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="F405" s="2"/>
       <c r="G405" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H405" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I405" t="s" s="2">
         <v>74</v>
@@ -48482,16 +48562,16 @@
         <v>74</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>1461</v>
+        <v>125</v>
       </c>
       <c r="M405" t="s" s="2">
-        <v>1476</v>
+        <v>126</v>
       </c>
       <c r="N405" t="s" s="2">
-        <v>1477</v>
+        <v>230</v>
       </c>
       <c r="O405" t="s" s="2">
-        <v>1464</v>
+        <v>128</v>
       </c>
       <c r="P405" s="2"/>
       <c r="Q405" t="s" s="2">
@@ -48541,62 +48621,66 @@
         <v>74</v>
       </c>
       <c r="AG405" t="s" s="2">
-        <v>1475</v>
+        <v>231</v>
       </c>
       <c r="AH405" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI405" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AJ405" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK405" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="F406" s="2"/>
       <c r="G406" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H406" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I406" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J406" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K406" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="M406" t="s" s="2">
-        <v>1158</v>
+        <v>234</v>
       </c>
       <c r="N406" t="s" s="2">
-        <v>1159</v>
-      </c>
-      <c r="O406" s="2"/>
-      <c r="P406" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="O406" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P406" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="Q406" t="s" s="2">
         <v>74</v>
       </c>
@@ -48644,30 +48728,30 @@
         <v>74</v>
       </c>
       <c r="AG406" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="AH406" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI406" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AJ406" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK406" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -48690,13 +48774,13 @@
         <v>74</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>411</v>
+        <v>1475</v>
       </c>
       <c r="N407" t="s" s="2">
-        <v>412</v>
+        <v>1476</v>
       </c>
       <c r="O407" s="2"/>
       <c r="P407" s="2"/>
@@ -48723,29 +48807,31 @@
         <v>74</v>
       </c>
       <c r="Y407" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="Z407" t="s" s="2">
-        <v>74</v>
+        <v>1477</v>
       </c>
       <c r="AA407" t="s" s="2">
-        <v>74</v>
+        <v>1478</v>
       </c>
       <c r="AB407" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AC407" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AD407" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD407" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AE407" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF407" t="s" s="2">
-        <v>414</v>
+        <v>74</v>
       </c>
       <c r="AG407" t="s" s="2">
-        <v>231</v>
+        <v>1474</v>
       </c>
       <c r="AH407" t="s" s="2">
         <v>72</v>
@@ -48757,22 +48843,20 @@
         <v>74</v>
       </c>
       <c r="AK407" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C408" t="s" s="2">
         <v>1479</v>
       </c>
-      <c r="D408" t="s" s="2">
-        <v>1468</v>
-      </c>
+      <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
         <v>74</v>
       </c>
@@ -48793,13 +48877,13 @@
         <v>74</v>
       </c>
       <c r="L408" t="s" s="2">
-        <v>1469</v>
+        <v>458</v>
       </c>
       <c r="M408" t="s" s="2">
-        <v>1470</v>
+        <v>1480</v>
       </c>
       <c r="N408" t="s" s="2">
-        <v>1471</v>
+        <v>1481</v>
       </c>
       <c r="O408" s="2"/>
       <c r="P408" s="2"/>
@@ -48850,30 +48934,30 @@
         <v>74</v>
       </c>
       <c r="AG408" t="s" s="2">
-        <v>231</v>
+        <v>1479</v>
       </c>
       <c r="AH408" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI408" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ408" t="s" s="2">
-        <v>420</v>
+        <v>74</v>
       </c>
       <c r="AK408" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
@@ -48896,15 +48980,17 @@
         <v>74</v>
       </c>
       <c r="L409" t="s" s="2">
-        <v>1461</v>
+        <v>1483</v>
       </c>
       <c r="M409" t="s" s="2">
-        <v>1473</v>
+        <v>1484</v>
       </c>
       <c r="N409" t="s" s="2">
-        <v>1174</v>
-      </c>
-      <c r="O409" s="2"/>
+        <v>1485</v>
+      </c>
+      <c r="O409" t="s" s="2">
+        <v>1486</v>
+      </c>
       <c r="P409" s="2"/>
       <c r="Q409" t="s" s="2">
         <v>74</v>
@@ -48953,7 +49039,7 @@
         <v>74</v>
       </c>
       <c r="AG409" t="s" s="2">
-        <v>1474</v>
+        <v>1482</v>
       </c>
       <c r="AH409" t="s" s="2">
         <v>72</v>
@@ -48965,18 +49051,18 @@
         <v>74</v>
       </c>
       <c r="AK409" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -48987,7 +49073,7 @@
         <v>72</v>
       </c>
       <c r="H410" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I410" t="s" s="2">
         <v>74</v>
@@ -48999,13 +49085,13 @@
         <v>74</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M410" t="s" s="2">
-        <v>1483</v>
+        <v>1158</v>
       </c>
       <c r="N410" t="s" s="2">
-        <v>1484</v>
+        <v>1159</v>
       </c>
       <c r="O410" s="2"/>
       <c r="P410" s="2"/>
@@ -49056,30 +49142,30 @@
         <v>74</v>
       </c>
       <c r="AG410" t="s" s="2">
-        <v>1482</v>
+        <v>228</v>
       </c>
       <c r="AH410" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI410" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ410" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK410" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
@@ -49090,7 +49176,7 @@
         <v>72</v>
       </c>
       <c r="H411" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I411" t="s" s="2">
         <v>74</v>
@@ -49102,13 +49188,13 @@
         <v>74</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="M411" t="s" s="2">
-        <v>226</v>
+        <v>411</v>
       </c>
       <c r="N411" t="s" s="2">
-        <v>227</v>
+        <v>412</v>
       </c>
       <c r="O411" s="2"/>
       <c r="P411" s="2"/>
@@ -49147,53 +49233,53 @@
         <v>74</v>
       </c>
       <c r="AC411" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD411" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="AD411" s="2"/>
       <c r="AE411" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF411" t="s" s="2">
-        <v>74</v>
+        <v>414</v>
       </c>
       <c r="AG411" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AH411" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI411" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AJ411" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK411" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1486</v>
-      </c>
-      <c r="D412" s="2"/>
+        <v>1488</v>
+      </c>
+      <c r="D412" t="s" s="2">
+        <v>1490</v>
+      </c>
       <c r="E412" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="F412" s="2"/>
       <c r="G412" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H412" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I412" t="s" s="2">
         <v>74</v>
@@ -49205,17 +49291,15 @@
         <v>74</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>125</v>
+        <v>1491</v>
       </c>
       <c r="M412" t="s" s="2">
-        <v>126</v>
+        <v>1492</v>
       </c>
       <c r="N412" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O412" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>1493</v>
+      </c>
+      <c r="O412" s="2"/>
       <c r="P412" s="2"/>
       <c r="Q412" t="s" s="2">
         <v>74</v>
@@ -49273,7 +49357,7 @@
         <v>73</v>
       </c>
       <c r="AJ412" t="s" s="2">
-        <v>74</v>
+        <v>420</v>
       </c>
       <c r="AK412" t="s" s="2">
         <v>130</v>
@@ -49281,49 +49365,45 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1487</v>
+        <v>1494</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>1487</v>
+        <v>1494</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="F413" s="2"/>
       <c r="G413" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H413" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I413" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J413" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K413" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L413" t="s" s="2">
-        <v>125</v>
+        <v>1483</v>
       </c>
       <c r="M413" t="s" s="2">
-        <v>234</v>
+        <v>1495</v>
       </c>
       <c r="N413" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O413" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P413" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>1174</v>
+      </c>
+      <c r="O413" s="2"/>
+      <c r="P413" s="2"/>
       <c r="Q413" t="s" s="2">
         <v>74</v>
       </c>
@@ -49371,30 +49451,30 @@
         <v>74</v>
       </c>
       <c r="AG413" t="s" s="2">
-        <v>236</v>
+        <v>1496</v>
       </c>
       <c r="AH413" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI413" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ413" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK413" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1488</v>
+        <v>1497</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>1488</v>
+        <v>1497</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" t="s" s="2">
@@ -49402,7 +49482,7 @@
       </c>
       <c r="F414" s="2"/>
       <c r="G414" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H414" t="s" s="2">
         <v>81</v>
@@ -49417,15 +49497,17 @@
         <v>74</v>
       </c>
       <c r="L414" t="s" s="2">
-        <v>225</v>
+        <v>1483</v>
       </c>
       <c r="M414" t="s" s="2">
-        <v>1489</v>
+        <v>1498</v>
       </c>
       <c r="N414" t="s" s="2">
-        <v>1490</v>
-      </c>
-      <c r="O414" s="2"/>
+        <v>1499</v>
+      </c>
+      <c r="O414" t="s" s="2">
+        <v>1486</v>
+      </c>
       <c r="P414" s="2"/>
       <c r="Q414" t="s" s="2">
         <v>74</v>
@@ -49474,10 +49556,10 @@
         <v>74</v>
       </c>
       <c r="AG414" t="s" s="2">
-        <v>1488</v>
+        <v>1497</v>
       </c>
       <c r="AH414" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AI414" t="s" s="2">
         <v>81</v>
@@ -49491,13 +49573,13 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1491</v>
+        <v>1500</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>1491</v>
+        <v>1500</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" t="s" s="2">
@@ -49520,13 +49602,13 @@
         <v>74</v>
       </c>
       <c r="L415" t="s" s="2">
-        <v>697</v>
+        <v>225</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>1492</v>
+        <v>1158</v>
       </c>
       <c r="N415" t="s" s="2">
-        <v>1493</v>
+        <v>1159</v>
       </c>
       <c r="O415" s="2"/>
       <c r="P415" s="2"/>
@@ -49577,7 +49659,7 @@
         <v>74</v>
       </c>
       <c r="AG415" t="s" s="2">
-        <v>1491</v>
+        <v>228</v>
       </c>
       <c r="AH415" t="s" s="2">
         <v>72</v>
@@ -49589,18 +49671,18 @@
         <v>74</v>
       </c>
       <c r="AK415" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1494</v>
+        <v>1501</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>1494</v>
+        <v>1501</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
@@ -49611,7 +49693,7 @@
         <v>72</v>
       </c>
       <c r="H416" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I416" t="s" s="2">
         <v>74</v>
@@ -49623,13 +49705,13 @@
         <v>74</v>
       </c>
       <c r="L416" t="s" s="2">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="M416" t="s" s="2">
-        <v>1495</v>
+        <v>411</v>
       </c>
       <c r="N416" t="s" s="2">
-        <v>1496</v>
+        <v>412</v>
       </c>
       <c r="O416" s="2"/>
       <c r="P416" s="2"/>
@@ -49668,44 +49750,44 @@
         <v>74</v>
       </c>
       <c r="AC416" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD416" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="AD416" s="2"/>
       <c r="AE416" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF416" t="s" s="2">
-        <v>74</v>
+        <v>414</v>
       </c>
       <c r="AG416" t="s" s="2">
-        <v>1494</v>
+        <v>231</v>
       </c>
       <c r="AH416" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI416" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AJ416" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK416" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1497</v>
+        <v>1502</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>1497</v>
-      </c>
-      <c r="D417" s="2"/>
+        <v>1501</v>
+      </c>
+      <c r="D417" t="s" s="2">
+        <v>1490</v>
+      </c>
       <c r="E417" t="s" s="2">
         <v>74</v>
       </c>
@@ -49714,7 +49796,7 @@
         <v>72</v>
       </c>
       <c r="H417" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I417" t="s" s="2">
         <v>74</v>
@@ -49726,18 +49808,16 @@
         <v>74</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>1043</v>
+        <v>1491</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="N417" t="s" s="2">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="O417" s="2"/>
-      <c r="P417" t="s" s="2">
-        <v>1500</v>
-      </c>
+      <c r="P417" s="2"/>
       <c r="Q417" t="s" s="2">
         <v>74</v>
       </c>
@@ -49785,7 +49865,7 @@
         <v>74</v>
       </c>
       <c r="AG417" t="s" s="2">
-        <v>1497</v>
+        <v>231</v>
       </c>
       <c r="AH417" t="s" s="2">
         <v>72</v>
@@ -49794,9 +49874,944 @@
         <v>73</v>
       </c>
       <c r="AJ417" t="s" s="2">
-        <v>74</v>
+        <v>420</v>
       </c>
       <c r="AK417" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="2">
+        <v>1409</v>
+      </c>
+      <c r="B418" t="s" s="2">
+        <v>1503</v>
+      </c>
+      <c r="C418" t="s" s="2">
+        <v>1503</v>
+      </c>
+      <c r="D418" s="2"/>
+      <c r="E418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F418" s="2"/>
+      <c r="G418" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H418" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L418" t="s" s="2">
+        <v>1483</v>
+      </c>
+      <c r="M418" t="s" s="2">
+        <v>1495</v>
+      </c>
+      <c r="N418" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="O418" s="2"/>
+      <c r="P418" s="2"/>
+      <c r="Q418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R418" s="2"/>
+      <c r="S418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG418" t="s" s="2">
+        <v>1496</v>
+      </c>
+      <c r="AH418" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI418" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ418" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK418" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="2">
+        <v>1409</v>
+      </c>
+      <c r="B419" t="s" s="2">
+        <v>1504</v>
+      </c>
+      <c r="C419" t="s" s="2">
+        <v>1504</v>
+      </c>
+      <c r="D419" s="2"/>
+      <c r="E419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F419" s="2"/>
+      <c r="G419" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H419" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L419" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M419" t="s" s="2">
+        <v>1505</v>
+      </c>
+      <c r="N419" t="s" s="2">
+        <v>1506</v>
+      </c>
+      <c r="O419" s="2"/>
+      <c r="P419" s="2"/>
+      <c r="Q419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R419" s="2"/>
+      <c r="S419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG419" t="s" s="2">
+        <v>1504</v>
+      </c>
+      <c r="AH419" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI419" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ419" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK419" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="2">
+        <v>1409</v>
+      </c>
+      <c r="B420" t="s" s="2">
+        <v>1507</v>
+      </c>
+      <c r="C420" t="s" s="2">
+        <v>1507</v>
+      </c>
+      <c r="D420" s="2"/>
+      <c r="E420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F420" s="2"/>
+      <c r="G420" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H420" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L420" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M420" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N420" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O420" s="2"/>
+      <c r="P420" s="2"/>
+      <c r="Q420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R420" s="2"/>
+      <c r="S420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG420" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AH420" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI420" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ420" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK420" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="2">
+        <v>1409</v>
+      </c>
+      <c r="B421" t="s" s="2">
+        <v>1508</v>
+      </c>
+      <c r="C421" t="s" s="2">
+        <v>1508</v>
+      </c>
+      <c r="D421" s="2"/>
+      <c r="E421" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F421" s="2"/>
+      <c r="G421" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H421" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L421" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M421" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N421" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O421" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P421" s="2"/>
+      <c r="Q421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R421" s="2"/>
+      <c r="S421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG421" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AH421" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI421" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ421" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK421" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="2">
+        <v>1409</v>
+      </c>
+      <c r="B422" t="s" s="2">
+        <v>1509</v>
+      </c>
+      <c r="C422" t="s" s="2">
+        <v>1509</v>
+      </c>
+      <c r="D422" s="2"/>
+      <c r="E422" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="F422" s="2"/>
+      <c r="G422" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H422" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J422" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K422" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L422" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M422" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N422" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O422" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P422" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Q422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R422" s="2"/>
+      <c r="S422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG422" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AH422" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI422" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK422" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="2">
+        <v>1409</v>
+      </c>
+      <c r="B423" t="s" s="2">
+        <v>1510</v>
+      </c>
+      <c r="C423" t="s" s="2">
+        <v>1510</v>
+      </c>
+      <c r="D423" s="2"/>
+      <c r="E423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F423" s="2"/>
+      <c r="G423" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H423" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L423" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M423" t="s" s="2">
+        <v>1511</v>
+      </c>
+      <c r="N423" t="s" s="2">
+        <v>1512</v>
+      </c>
+      <c r="O423" s="2"/>
+      <c r="P423" s="2"/>
+      <c r="Q423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R423" s="2"/>
+      <c r="S423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG423" t="s" s="2">
+        <v>1510</v>
+      </c>
+      <c r="AH423" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI423" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK423" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="2">
+        <v>1409</v>
+      </c>
+      <c r="B424" t="s" s="2">
+        <v>1513</v>
+      </c>
+      <c r="C424" t="s" s="2">
+        <v>1513</v>
+      </c>
+      <c r="D424" s="2"/>
+      <c r="E424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F424" s="2"/>
+      <c r="G424" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H424" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L424" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="M424" t="s" s="2">
+        <v>1514</v>
+      </c>
+      <c r="N424" t="s" s="2">
+        <v>1515</v>
+      </c>
+      <c r="O424" s="2"/>
+      <c r="P424" s="2"/>
+      <c r="Q424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R424" s="2"/>
+      <c r="S424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG424" t="s" s="2">
+        <v>1513</v>
+      </c>
+      <c r="AH424" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI424" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK424" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="2">
+        <v>1409</v>
+      </c>
+      <c r="B425" t="s" s="2">
+        <v>1516</v>
+      </c>
+      <c r="C425" t="s" s="2">
+        <v>1516</v>
+      </c>
+      <c r="D425" s="2"/>
+      <c r="E425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F425" s="2"/>
+      <c r="G425" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H425" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L425" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M425" t="s" s="2">
+        <v>1517</v>
+      </c>
+      <c r="N425" t="s" s="2">
+        <v>1518</v>
+      </c>
+      <c r="O425" s="2"/>
+      <c r="P425" s="2"/>
+      <c r="Q425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R425" s="2"/>
+      <c r="S425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG425" t="s" s="2">
+        <v>1516</v>
+      </c>
+      <c r="AH425" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI425" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ425" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK425" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="2">
+        <v>1409</v>
+      </c>
+      <c r="B426" t="s" s="2">
+        <v>1519</v>
+      </c>
+      <c r="C426" t="s" s="2">
+        <v>1519</v>
+      </c>
+      <c r="D426" s="2"/>
+      <c r="E426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F426" s="2"/>
+      <c r="G426" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H426" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L426" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="M426" t="s" s="2">
+        <v>1520</v>
+      </c>
+      <c r="N426" t="s" s="2">
+        <v>1521</v>
+      </c>
+      <c r="O426" s="2"/>
+      <c r="P426" t="s" s="2">
+        <v>1522</v>
+      </c>
+      <c r="Q426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R426" s="2"/>
+      <c r="S426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG426" t="s" s="2">
+        <v>1519</v>
+      </c>
+      <c r="AH426" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI426" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK426" t="s" s="2">
         <v>93</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-20T09:59:48+10:00</t>
+    <t>2024-05-20T12:15:26+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:27:21+10:00</t>
+    <t>2024-05-23T13:42:03+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:42:03+10:00</t>
+    <t>2024-05-23T14:45:45+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:45:45+10:00</t>
+    <t>2024-05-23T15:19:20+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16352" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16352" uniqueCount="1800">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T15:19:20+10:00</t>
+    <t>2024-05-27T13:31:05+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3812,24 +3812,24 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {Address|http://hl7.org.au/fhir/StructureDefinition/au-address}
+    <t xml:space="preserve">Address {http://hl7.org.au/fhir/StructureDefinition/au-address}
 </t>
   </si>
   <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
-  </si>
-  <si>
-    <t>An address for the organization.</t>
-  </si>
-  <si>
-    <t>The address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates. Postal addresses are often used as proxies for physical locations (also see the Location resource).</t>
+    <t>An address in Australia for use within an Australian healthcare context</t>
+  </si>
+  <si>
+    <t>An Australian address expressed using postal conventions (as opposed to GPS or other location definition formats).</t>
+  </si>
+  <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+inv-add-0:The address shall at least have text or a line {text.exists() or line.exists()}inv-add-1:If asserting no fixed address, the type shall be 'physical' {extension('http://hl7.org.au/fhir/StructureDefinition/no-fixed-address').exists() implies type='physical'}inv-add-2:If asserting no fixed address, the address text shall begin with 'NO FIXED ADDRESS' {extension('http://hl7.org.au/fhir/StructureDefinition/no-fixed-address').exists() implies text.startsWith('NO FIXED ADDRESS')}org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>Organization.partOf</t>
@@ -4632,7 +4632,7 @@
     <t>An address for the individual</t>
   </si>
   <si>
-    <t>An Australian address expressed using postal conventions (as opposed to GPS or other location definition formats).</t>
+    <t>The address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates. Postal addresses are often used as proxies for physical locations (also see the Location resource).</t>
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
@@ -4769,6 +4769,10 @@
   </si>
   <si>
     <t>Patient.contact.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address {Address|http://hl7.org.au/fhir/StructureDefinition/au-address}
+</t>
   </si>
   <si>
     <t>Address for the contact person</t>
@@ -5126,6 +5130,9 @@
   </si>
   <si>
     <t>Practitioner.address</t>
+  </si>
+  <si>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
   </si>
   <si>
     <t>The home/mailing address of the practitioner is often required for employee administration purposes, and also for some rostering services where the start point (practitioners home) can be used in calculations.</t>
@@ -6935,7 +6942,7 @@
         <v>2</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="150">
@@ -6943,7 +6950,7 @@
         <v>4</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="151">
@@ -6959,7 +6966,7 @@
         <v>8</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="153">
@@ -7019,7 +7026,7 @@
         <v>21</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="161">
@@ -7055,7 +7062,7 @@
         <v>29</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="166">
@@ -7063,7 +7070,7 @@
         <v>31</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="167">
@@ -7095,7 +7102,7 @@
         <v>2</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="171">
@@ -7103,7 +7110,7 @@
         <v>4</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>1678</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="172">
@@ -7119,7 +7126,7 @@
         <v>8</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="174">
@@ -7179,7 +7186,7 @@
         <v>21</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>1679</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="182">
@@ -7215,7 +7222,7 @@
         <v>29</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>1680</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="187">
@@ -7223,7 +7230,7 @@
         <v>31</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="188">
@@ -40752,7 +40759,7 @@
       </c>
       <c r="F320" s="2"/>
       <c r="G320" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H320" t="s" s="2">
         <v>75</v>
@@ -47200,10 +47207,10 @@
         <v>1471</v>
       </c>
       <c r="N381" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="O381" t="s" s="2">
         <v>1472</v>
-      </c>
-      <c r="O381" t="s" s="2">
-        <v>1215</v>
       </c>
       <c r="P381" t="s" s="2">
         <v>1473</v>
@@ -48357,19 +48364,19 @@
         <v>76</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>1212</v>
+        <v>1516</v>
       </c>
       <c r="M392" t="s" s="2">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="N392" t="s" s="2">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="O392" t="s" s="2">
-        <v>1215</v>
+        <v>1472</v>
       </c>
       <c r="P392" t="s" s="2">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="Q392" t="s" s="2">
         <v>76</v>
@@ -48438,10 +48445,10 @@
         <v>1254</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
@@ -48470,11 +48477,11 @@
         <v>1411</v>
       </c>
       <c r="N393" t="s" s="2">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="O393" s="2"/>
       <c r="P393" t="s" s="2">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="Q393" t="s" s="2">
         <v>76</v>
@@ -48523,7 +48530,7 @@
         <v>76</v>
       </c>
       <c r="AG393" t="s" s="2">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="AH393" t="s" s="2">
         <v>74</v>
@@ -48543,10 +48550,10 @@
         <v>1254</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
@@ -48572,14 +48579,14 @@
         <v>962</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="N394" t="s" s="2">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="O394" s="2"/>
       <c r="P394" t="s" s="2">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="Q394" t="s" s="2">
         <v>76</v>
@@ -48628,7 +48635,7 @@
         <v>76</v>
       </c>
       <c r="AG394" t="s" s="2">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="AH394" t="s" s="2">
         <v>74</v>
@@ -48637,7 +48644,7 @@
         <v>83</v>
       </c>
       <c r="AJ394" t="s" s="2">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="AK394" t="s" s="2">
         <v>95</v>
@@ -48648,10 +48655,10 @@
         <v>1254</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
@@ -48677,10 +48684,10 @@
         <v>359</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="N395" t="s" s="2">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="O395" s="2"/>
       <c r="P395" s="2"/>
@@ -48731,7 +48738,7 @@
         <v>76</v>
       </c>
       <c r="AG395" t="s" s="2">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AH395" t="s" s="2">
         <v>74</v>
@@ -48751,10 +48758,10 @@
         <v>1254</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
@@ -48780,16 +48787,16 @@
         <v>223</v>
       </c>
       <c r="M396" t="s" s="2">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="N396" t="s" s="2">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="O396" t="s" s="2">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="P396" t="s" s="2">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="Q396" t="s" s="2">
         <v>76</v>
@@ -48838,7 +48845,7 @@
         <v>76</v>
       </c>
       <c r="AG396" t="s" s="2">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="AH396" t="s" s="2">
         <v>74</v>
@@ -48858,10 +48865,10 @@
         <v>1254</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
@@ -48961,10 +48968,10 @@
         <v>1254</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
@@ -49066,10 +49073,10 @@
         <v>1254</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
@@ -49173,10 +49180,10 @@
         <v>1254</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
@@ -49202,16 +49209,16 @@
         <v>145</v>
       </c>
       <c r="M400" t="s" s="2">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="N400" t="s" s="2">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="O400" t="s" s="2">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="P400" t="s" s="2">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="Q400" t="s" s="2">
         <v>76</v>
@@ -49240,7 +49247,7 @@
       </c>
       <c r="Z400" s="2"/>
       <c r="AA400" t="s" s="2">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="AB400" t="s" s="2">
         <v>76</v>
@@ -49258,7 +49265,7 @@
         <v>76</v>
       </c>
       <c r="AG400" t="s" s="2">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="AH400" t="s" s="2">
         <v>83</v>
@@ -49278,10 +49285,10 @@
         <v>1254</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
@@ -49307,16 +49314,16 @@
         <v>485</v>
       </c>
       <c r="M401" t="s" s="2">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="N401" t="s" s="2">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="O401" t="s" s="2">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="P401" t="s" s="2">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="Q401" t="s" s="2">
         <v>76</v>
@@ -49365,7 +49372,7 @@
         <v>76</v>
       </c>
       <c r="AG401" t="s" s="2">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="AH401" t="s" s="2">
         <v>74</v>
@@ -49385,14 +49392,14 @@
         <v>1254</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="F402" s="2"/>
       <c r="G402" t="s" s="2">
@@ -49411,16 +49418,16 @@
         <v>76</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="M402" t="s" s="2">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="N402" t="s" s="2">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="O402" t="s" s="2">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="P402" s="2"/>
       <c r="Q402" t="s" s="2">
@@ -49470,7 +49477,7 @@
         <v>76</v>
       </c>
       <c r="AG402" t="s" s="2">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="AH402" t="s" s="2">
         <v>74</v>
@@ -49490,10 +49497,10 @@
         <v>1254</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
@@ -49519,16 +49526,16 @@
         <v>962</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="N403" t="s" s="2">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="O403" t="s" s="2">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="P403" t="s" s="2">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="Q403" t="s" s="2">
         <v>76</v>
@@ -49577,7 +49584,7 @@
         <v>76</v>
       </c>
       <c r="AG403" t="s" s="2">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="AH403" t="s" s="2">
         <v>74</v>
@@ -49597,10 +49604,10 @@
         <v>1254</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -49626,16 +49633,16 @@
         <v>223</v>
       </c>
       <c r="M404" t="s" s="2">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="N404" t="s" s="2">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="O404" t="s" s="2">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="P404" t="s" s="2">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="Q404" t="s" s="2">
         <v>76</v>
@@ -49684,7 +49691,7 @@
         <v>76</v>
       </c>
       <c r="AG404" t="s" s="2">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="AH404" t="s" s="2">
         <v>74</v>
@@ -49704,10 +49711,10 @@
         <v>1254</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" t="s" s="2">
@@ -49807,10 +49814,10 @@
         <v>1254</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
@@ -49912,10 +49919,10 @@
         <v>1254</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -50019,10 +50026,10 @@
         <v>1254</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
@@ -50045,16 +50052,16 @@
         <v>84</v>
       </c>
       <c r="L408" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="M408" t="s" s="2">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="N408" t="s" s="2">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="O408" t="s" s="2">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="P408" s="2"/>
       <c r="Q408" t="s" s="2">
@@ -50104,7 +50111,7 @@
         <v>76</v>
       </c>
       <c r="AG408" t="s" s="2">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="AH408" t="s" s="2">
         <v>83</v>
@@ -50124,10 +50131,10 @@
         <v>1254</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
@@ -50153,10 +50160,10 @@
         <v>103</v>
       </c>
       <c r="M409" t="s" s="2">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="N409" t="s" s="2">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="O409" s="2"/>
       <c r="P409" s="2"/>
@@ -50186,10 +50193,10 @@
         <v>149</v>
       </c>
       <c r="Z409" t="s" s="2">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="AA409" t="s" s="2">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="AB409" t="s" s="2">
         <v>76</v>
@@ -50207,7 +50214,7 @@
         <v>76</v>
       </c>
       <c r="AG409" t="s" s="2">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="AH409" t="s" s="2">
         <v>83</v>
@@ -50224,13 +50231,13 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -50256,10 +50263,10 @@
         <v>77</v>
       </c>
       <c r="M410" t="s" s="2">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="N410" t="s" s="2">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="O410" s="2"/>
       <c r="P410" s="2"/>
@@ -50310,7 +50317,7 @@
         <v>76</v>
       </c>
       <c r="AG410" t="s" s="2">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="AH410" t="s" s="2">
         <v>74</v>
@@ -50322,18 +50329,18 @@
         <v>76</v>
       </c>
       <c r="AK410" t="s" s="2">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
@@ -50432,13 +50439,13 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
@@ -50535,13 +50542,13 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
@@ -50640,13 +50647,13 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" t="s" s="2">
@@ -50745,13 +50752,13 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" t="s" s="2">
@@ -50850,13 +50857,13 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
@@ -50955,13 +50962,13 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" t="s" s="2">
@@ -51056,13 +51063,13 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B418" t="s" s="2">
+        <v>1593</v>
+      </c>
+      <c r="C418" t="s" s="2">
         <v>1592</v>
-      </c>
-      <c r="C418" t="s" s="2">
-        <v>1591</v>
       </c>
       <c r="D418" t="s" s="2">
         <v>1311</v>
@@ -51155,7 +51162,7 @@
         <v>75</v>
       </c>
       <c r="AJ418" t="s" s="2">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="AK418" t="s" s="2">
         <v>132</v>
@@ -51163,13 +51170,13 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="D419" t="s" s="2">
         <v>1318</v>
@@ -51262,7 +51269,7 @@
         <v>75</v>
       </c>
       <c r="AJ419" t="s" s="2">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="AK419" t="s" s="2">
         <v>132</v>
@@ -51270,13 +51277,13 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="D420" t="s" s="2">
         <v>1325</v>
@@ -51375,13 +51382,13 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
@@ -51482,13 +51489,13 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" t="s" s="2">
@@ -51511,17 +51518,17 @@
         <v>76</v>
       </c>
       <c r="L422" t="s" s="2">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="M422" t="s" s="2">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="N422" t="s" s="2">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="O422" s="2"/>
       <c r="P422" t="s" s="2">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="Q422" t="s" s="2">
         <v>76</v>
@@ -51568,7 +51575,7 @@
         <v>669</v>
       </c>
       <c r="AG422" t="s" s="2">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="AH422" t="s" s="2">
         <v>74</v>
@@ -51585,16 +51592,16 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D423" t="s" s="2">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="E423" t="s" s="2">
         <v>76</v>
@@ -51616,17 +51623,17 @@
         <v>76</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="O423" s="2"/>
       <c r="P423" t="s" s="2">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="Q423" t="s" s="2">
         <v>76</v>
@@ -51675,7 +51682,7 @@
         <v>76</v>
       </c>
       <c r="AG423" t="s" s="2">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="AH423" t="s" s="2">
         <v>74</v>
@@ -51687,18 +51694,18 @@
         <v>675</v>
       </c>
       <c r="AK423" t="s" s="2">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" t="s" s="2">
@@ -51724,16 +51731,16 @@
         <v>485</v>
       </c>
       <c r="M424" t="s" s="2">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="N424" t="s" s="2">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="O424" t="s" s="2">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="P424" t="s" s="2">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="Q424" t="s" s="2">
         <v>76</v>
@@ -51784,7 +51791,7 @@
         <v>76</v>
       </c>
       <c r="AG424" t="s" s="2">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="AH424" t="s" s="2">
         <v>74</v>
@@ -51801,13 +51808,13 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" t="s" s="2">
@@ -51833,16 +51840,16 @@
         <v>1236</v>
       </c>
       <c r="M425" t="s" s="2">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="N425" t="s" s="2">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="O425" t="s" s="2">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="P425" t="s" s="2">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="Q425" t="s" s="2">
         <v>76</v>
@@ -51891,7 +51898,7 @@
         <v>76</v>
       </c>
       <c r="AG425" t="s" s="2">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="AH425" t="s" s="2">
         <v>74</v>
@@ -51900,21 +51907,21 @@
         <v>75</v>
       </c>
       <c r="AJ425" t="s" s="2">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="AK425" t="s" s="2">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" t="s" s="2">
@@ -51940,16 +51947,16 @@
         <v>1204</v>
       </c>
       <c r="M426" t="s" s="2">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="N426" t="s" s="2">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="O426" t="s" s="2">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="P426" t="s" s="2">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="Q426" t="s" s="2">
         <v>76</v>
@@ -51998,7 +52005,7 @@
         <v>76</v>
       </c>
       <c r="AG426" t="s" s="2">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="AH426" t="s" s="2">
         <v>74</v>
@@ -52015,13 +52022,13 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" t="s" s="2">
@@ -52044,19 +52051,19 @@
         <v>76</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>1212</v>
+        <v>1516</v>
       </c>
       <c r="M427" t="s" s="2">
-        <v>1213</v>
+        <v>1628</v>
       </c>
       <c r="N427" t="s" s="2">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="O427" t="s" s="2">
-        <v>1215</v>
+        <v>1472</v>
       </c>
       <c r="P427" t="s" s="2">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="Q427" t="s" s="2">
         <v>76</v>
@@ -52105,7 +52112,7 @@
         <v>76</v>
       </c>
       <c r="AG427" t="s" s="2">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="AH427" t="s" s="2">
         <v>74</v>
@@ -52114,7 +52121,7 @@
         <v>75</v>
       </c>
       <c r="AJ427" t="s" s="2">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AK427" t="s" s="2">
         <v>95</v>
@@ -52122,13 +52129,13 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
@@ -52157,11 +52164,11 @@
         <v>1411</v>
       </c>
       <c r="N428" t="s" s="2">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="O428" s="2"/>
       <c r="P428" t="s" s="2">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="Q428" t="s" s="2">
         <v>76</v>
@@ -52210,7 +52217,7 @@
         <v>76</v>
       </c>
       <c r="AG428" t="s" s="2">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AH428" t="s" s="2">
         <v>74</v>
@@ -52227,13 +52234,13 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" t="s" s="2">
@@ -52259,14 +52266,14 @@
         <v>1418</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="O429" s="2"/>
       <c r="P429" t="s" s="2">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="Q429" t="s" s="2">
         <v>76</v>
@@ -52315,7 +52322,7 @@
         <v>76</v>
       </c>
       <c r="AG429" t="s" s="2">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="AH429" t="s" s="2">
         <v>74</v>
@@ -52332,13 +52339,13 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
@@ -52364,14 +52371,14 @@
         <v>1488</v>
       </c>
       <c r="M430" t="s" s="2">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="N430" t="s" s="2">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="O430" s="2"/>
       <c r="P430" t="s" s="2">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="Q430" t="s" s="2">
         <v>76</v>
@@ -52420,7 +52427,7 @@
         <v>76</v>
       </c>
       <c r="AG430" t="s" s="2">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="AH430" t="s" s="2">
         <v>74</v>
@@ -52437,13 +52444,13 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" t="s" s="2">
@@ -52469,10 +52476,10 @@
         <v>223</v>
       </c>
       <c r="M431" t="s" s="2">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="N431" t="s" s="2">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="O431" s="2"/>
       <c r="P431" s="2"/>
@@ -52523,7 +52530,7 @@
         <v>76</v>
       </c>
       <c r="AG431" t="s" s="2">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AH431" t="s" s="2">
         <v>74</v>
@@ -52535,18 +52542,18 @@
         <v>76</v>
       </c>
       <c r="AK431" t="s" s="2">
-        <v>1642</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" t="s" s="2">
@@ -52643,13 +52650,13 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" t="s" s="2">
@@ -52744,16 +52751,16 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="D434" t="s" s="2">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="E434" t="s" s="2">
         <v>76</v>
@@ -52775,10 +52782,10 @@
         <v>76</v>
       </c>
       <c r="L434" t="s" s="2">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="M434" t="s" s="2">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="N434" t="s" s="2">
         <v>667</v>
@@ -52841,7 +52848,7 @@
         <v>75</v>
       </c>
       <c r="AJ434" t="s" s="2">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="AK434" t="s" s="2">
         <v>132</v>
@@ -52849,16 +52856,16 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="D435" t="s" s="2">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="E435" t="s" s="2">
         <v>76</v>
@@ -52880,13 +52887,13 @@
         <v>76</v>
       </c>
       <c r="L435" t="s" s="2">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="M435" t="s" s="2">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="N435" t="s" s="2">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="O435" s="2"/>
       <c r="P435" s="2"/>
@@ -52946,7 +52953,7 @@
         <v>75</v>
       </c>
       <c r="AJ435" t="s" s="2">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="AK435" t="s" s="2">
         <v>132</v>
@@ -52954,13 +52961,13 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" t="s" s="2">
@@ -53061,13 +53068,13 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" t="s" s="2">
@@ -53090,17 +53097,17 @@
         <v>76</v>
       </c>
       <c r="L437" t="s" s="2">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="M437" t="s" s="2">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="N437" t="s" s="2">
         <v>1333</v>
       </c>
       <c r="O437" s="2"/>
       <c r="P437" t="s" s="2">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="Q437" t="s" s="2">
         <v>76</v>
@@ -53149,7 +53156,7 @@
         <v>76</v>
       </c>
       <c r="AG437" t="s" s="2">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AH437" t="s" s="2">
         <v>74</v>
@@ -53166,13 +53173,13 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" t="s" s="2">
@@ -53198,10 +53205,10 @@
         <v>145</v>
       </c>
       <c r="M438" t="s" s="2">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="N438" t="s" s="2">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="O438" s="2"/>
       <c r="P438" s="2"/>
@@ -53232,7 +53239,7 @@
       </c>
       <c r="Z438" s="2"/>
       <c r="AA438" t="s" s="2">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="AB438" t="s" s="2">
         <v>76</v>
@@ -53250,7 +53257,7 @@
         <v>76</v>
       </c>
       <c r="AG438" t="s" s="2">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="AH438" t="s" s="2">
         <v>83</v>
@@ -53259,7 +53266,7 @@
         <v>83</v>
       </c>
       <c r="AJ438" t="s" s="2">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="AK438" t="s" s="2">
         <v>95</v>
@@ -53267,13 +53274,13 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" t="s" s="2">
@@ -53299,14 +53306,14 @@
         <v>359</v>
       </c>
       <c r="M439" t="s" s="2">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="N439" t="s" s="2">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="O439" s="2"/>
       <c r="P439" t="s" s="2">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="Q439" t="s" s="2">
         <v>76</v>
@@ -53355,7 +53362,7 @@
         <v>76</v>
       </c>
       <c r="AG439" t="s" s="2">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AH439" t="s" s="2">
         <v>74</v>
@@ -53372,13 +53379,13 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" t="s" s="2">
@@ -53404,10 +53411,10 @@
         <v>962</v>
       </c>
       <c r="M440" t="s" s="2">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="N440" t="s" s="2">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="O440" s="2"/>
       <c r="P440" s="2"/>
@@ -53458,7 +53465,7 @@
         <v>76</v>
       </c>
       <c r="AG440" t="s" s="2">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="AH440" t="s" s="2">
         <v>74</v>
@@ -53475,13 +53482,13 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" t="s" s="2">
@@ -53507,16 +53514,16 @@
         <v>145</v>
       </c>
       <c r="M441" t="s" s="2">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="N441" t="s" s="2">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="O441" t="s" s="2">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="P441" t="s" s="2">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="Q441" t="s" s="2">
         <v>76</v>
@@ -53545,7 +53552,7 @@
       </c>
       <c r="Z441" s="2"/>
       <c r="AA441" t="s" s="2">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="AB441" t="s" s="2">
         <v>76</v>
@@ -53563,7 +53570,7 @@
         <v>76</v>
       </c>
       <c r="AG441" t="s" s="2">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="AH441" t="s" s="2">
         <v>74</v>
@@ -53580,13 +53587,13 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" t="s" s="2">
@@ -53612,10 +53619,10 @@
         <v>77</v>
       </c>
       <c r="M442" t="s" s="2">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="N442" t="s" s="2">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="O442" s="2"/>
       <c r="P442" s="2"/>
@@ -53666,7 +53673,7 @@
         <v>76</v>
       </c>
       <c r="AG442" t="s" s="2">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="AH442" t="s" s="2">
         <v>74</v>
@@ -53683,13 +53690,13 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" t="s" s="2">
@@ -53788,13 +53795,13 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" t="s" s="2">
@@ -53891,13 +53898,13 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" t="s" s="2">
@@ -53996,13 +54003,13 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" t="s" s="2">
@@ -54101,13 +54108,13 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" t="s" s="2">
@@ -54206,13 +54213,13 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" t="s" s="2">
@@ -54311,13 +54318,13 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" t="s" s="2">
@@ -54416,13 +54423,13 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" t="s" s="2">
@@ -54523,13 +54530,13 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" t="s" s="2">
@@ -54552,17 +54559,17 @@
         <v>76</v>
       </c>
       <c r="L451" t="s" s="2">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="M451" t="s" s="2">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="N451" t="s" s="2">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="O451" s="2"/>
       <c r="P451" t="s" s="2">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="Q451" t="s" s="2">
         <v>76</v>
@@ -54609,7 +54616,7 @@
         <v>669</v>
       </c>
       <c r="AG451" t="s" s="2">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AH451" t="s" s="2">
         <v>74</v>
@@ -54626,16 +54633,16 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="D452" t="s" s="2">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="E452" t="s" s="2">
         <v>76</v>
@@ -54657,17 +54664,17 @@
         <v>76</v>
       </c>
       <c r="L452" t="s" s="2">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="M452" t="s" s="2">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="N452" t="s" s="2">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="O452" s="2"/>
       <c r="P452" t="s" s="2">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="Q452" t="s" s="2">
         <v>76</v>
@@ -54716,7 +54723,7 @@
         <v>76</v>
       </c>
       <c r="AG452" t="s" s="2">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AH452" t="s" s="2">
         <v>74</v>
@@ -54733,13 +54740,13 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" t="s" s="2">
@@ -54765,16 +54772,16 @@
         <v>485</v>
       </c>
       <c r="M453" t="s" s="2">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="N453" t="s" s="2">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="O453" t="s" s="2">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="P453" t="s" s="2">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="Q453" t="s" s="2">
         <v>76</v>
@@ -54825,7 +54832,7 @@
         <v>76</v>
       </c>
       <c r="AG453" t="s" s="2">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="AH453" t="s" s="2">
         <v>74</v>
@@ -54842,13 +54849,13 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" t="s" s="2">
@@ -54874,14 +54881,14 @@
         <v>359</v>
       </c>
       <c r="M454" t="s" s="2">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="N454" t="s" s="2">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="O454" s="2"/>
       <c r="P454" t="s" s="2">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="Q454" t="s" s="2">
         <v>76</v>
@@ -54930,7 +54937,7 @@
         <v>76</v>
       </c>
       <c r="AG454" t="s" s="2">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="AH454" t="s" s="2">
         <v>74</v>
@@ -54947,13 +54954,13 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" t="s" s="2">
@@ -54976,13 +54983,13 @@
         <v>84</v>
       </c>
       <c r="L455" t="s" s="2">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="N455" t="s" s="2">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="O455" s="2"/>
       <c r="P455" s="2"/>
@@ -55033,7 +55040,7 @@
         <v>76</v>
       </c>
       <c r="AG455" t="s" s="2">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="AH455" t="s" s="2">
         <v>74</v>
@@ -55042,21 +55049,21 @@
         <v>83</v>
       </c>
       <c r="AJ455" t="s" s="2">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="AK455" t="s" s="2">
-        <v>1715</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" t="s" s="2">
@@ -55079,13 +55086,13 @@
         <v>84</v>
       </c>
       <c r="L456" t="s" s="2">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="M456" t="s" s="2">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="N456" t="s" s="2">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="O456" s="2"/>
       <c r="P456" s="2"/>
@@ -55136,7 +55143,7 @@
         <v>76</v>
       </c>
       <c r="AG456" t="s" s="2">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="AH456" t="s" s="2">
         <v>74</v>
@@ -55153,13 +55160,13 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" t="s" s="2">
@@ -55185,16 +55192,16 @@
         <v>145</v>
       </c>
       <c r="M457" t="s" s="2">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="N457" t="s" s="2">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="O457" t="s" s="2">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="P457" t="s" s="2">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="Q457" t="s" s="2">
         <v>76</v>
@@ -55223,7 +55230,7 @@
       </c>
       <c r="Z457" s="2"/>
       <c r="AA457" t="s" s="2">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="AB457" t="s" s="2">
         <v>76</v>
@@ -55241,7 +55248,7 @@
         <v>76</v>
       </c>
       <c r="AG457" t="s" s="2">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="AH457" t="s" s="2">
         <v>74</v>
@@ -55258,13 +55265,13 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" t="s" s="2">
@@ -55290,10 +55297,10 @@
         <v>145</v>
       </c>
       <c r="M458" t="s" s="2">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="N458" t="s" s="2">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="O458" s="2"/>
       <c r="P458" s="2"/>
@@ -55324,7 +55331,7 @@
       </c>
       <c r="Z458" s="2"/>
       <c r="AA458" t="s" s="2">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="AB458" t="s" s="2">
         <v>76</v>
@@ -55342,7 +55349,7 @@
         <v>76</v>
       </c>
       <c r="AG458" t="s" s="2">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="AH458" t="s" s="2">
         <v>74</v>
@@ -55359,13 +55366,13 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" t="s" s="2">
@@ -55388,13 +55395,13 @@
         <v>84</v>
       </c>
       <c r="L459" t="s" s="2">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="M459" t="s" s="2">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="N459" t="s" s="2">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="O459" s="2"/>
       <c r="P459" s="2"/>
@@ -55445,7 +55452,7 @@
         <v>76</v>
       </c>
       <c r="AG459" t="s" s="2">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="AH459" t="s" s="2">
         <v>74</v>
@@ -55462,13 +55469,13 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" t="s" s="2">
@@ -55491,13 +55498,13 @@
         <v>76</v>
       </c>
       <c r="L460" t="s" s="2">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="M460" t="s" s="2">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="N460" t="s" s="2">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="O460" s="2"/>
       <c r="P460" s="2"/>
@@ -55548,7 +55555,7 @@
         <v>76</v>
       </c>
       <c r="AG460" t="s" s="2">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="AH460" t="s" s="2">
         <v>74</v>
@@ -55565,13 +55572,13 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" t="s" s="2">
@@ -55597,14 +55604,14 @@
         <v>1204</v>
       </c>
       <c r="M461" t="s" s="2">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="N461" t="s" s="2">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="O461" s="2"/>
       <c r="P461" t="s" s="2">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="Q461" t="s" s="2">
         <v>76</v>
@@ -55653,7 +55660,7 @@
         <v>76</v>
       </c>
       <c r="AG461" t="s" s="2">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="AH461" t="s" s="2">
         <v>74</v>
@@ -55670,13 +55677,13 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" t="s" s="2">
@@ -55702,13 +55709,13 @@
         <v>223</v>
       </c>
       <c r="M462" t="s" s="2">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="N462" t="s" s="2">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="O462" t="s" s="2">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="P462" s="2"/>
       <c r="Q462" t="s" s="2">
@@ -55758,7 +55765,7 @@
         <v>76</v>
       </c>
       <c r="AG462" t="s" s="2">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="AH462" t="s" s="2">
         <v>74</v>
@@ -55775,13 +55782,13 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" t="s" s="2">
@@ -55878,13 +55885,13 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" t="s" s="2">
@@ -55983,13 +55990,13 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" t="s" s="2">
@@ -56090,13 +56097,13 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" t="s" s="2">
@@ -56122,10 +56129,10 @@
         <v>103</v>
       </c>
       <c r="M466" t="s" s="2">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="N466" t="s" s="2">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="O466" s="2"/>
       <c r="P466" s="2"/>
@@ -56155,10 +56162,10 @@
         <v>149</v>
       </c>
       <c r="Z466" t="s" s="2">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="AA466" t="s" s="2">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="AB466" t="s" s="2">
         <v>76</v>
@@ -56176,7 +56183,7 @@
         <v>76</v>
       </c>
       <c r="AG466" t="s" s="2">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AH466" t="s" s="2">
         <v>74</v>
@@ -56193,13 +56200,13 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" t="s" s="2">
@@ -56225,10 +56232,10 @@
         <v>485</v>
       </c>
       <c r="M467" t="s" s="2">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="N467" t="s" s="2">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="O467" s="2"/>
       <c r="P467" s="2"/>
@@ -56279,7 +56286,7 @@
         <v>76</v>
       </c>
       <c r="AG467" t="s" s="2">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="AH467" t="s" s="2">
         <v>74</v>
@@ -56296,13 +56303,13 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" t="s" s="2">
@@ -56325,16 +56332,16 @@
         <v>76</v>
       </c>
       <c r="L468" t="s" s="2">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="M468" t="s" s="2">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="N468" t="s" s="2">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="O468" t="s" s="2">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="P468" s="2"/>
       <c r="Q468" t="s" s="2">
@@ -56384,7 +56391,7 @@
         <v>76</v>
       </c>
       <c r="AG468" t="s" s="2">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="AH468" t="s" s="2">
         <v>74</v>
@@ -56401,13 +56408,13 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" t="s" s="2">
@@ -56504,13 +56511,13 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" t="s" s="2">
@@ -56605,16 +56612,16 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="D471" t="s" s="2">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="E471" t="s" s="2">
         <v>76</v>
@@ -56636,13 +56643,13 @@
         <v>76</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="N471" t="s" s="2">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="O471" s="2"/>
       <c r="P471" s="2"/>
@@ -56710,13 +56717,13 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" t="s" s="2">
@@ -56739,10 +56746,10 @@
         <v>76</v>
       </c>
       <c r="L472" t="s" s="2">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="M472" t="s" s="2">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="N472" t="s" s="2">
         <v>1442</v>
@@ -56796,7 +56803,7 @@
         <v>76</v>
       </c>
       <c r="AG472" t="s" s="2">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="AH472" t="s" s="2">
         <v>74</v>
@@ -56813,13 +56820,13 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" t="s" s="2">
@@ -56842,16 +56849,16 @@
         <v>76</v>
       </c>
       <c r="L473" t="s" s="2">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="M473" t="s" s="2">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="N473" t="s" s="2">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="O473" t="s" s="2">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="P473" s="2"/>
       <c r="Q473" t="s" s="2">
@@ -56901,7 +56908,7 @@
         <v>76</v>
       </c>
       <c r="AG473" t="s" s="2">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="AH473" t="s" s="2">
         <v>74</v>
@@ -56918,13 +56925,13 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" t="s" s="2">
@@ -57021,13 +57028,13 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" t="s" s="2">
@@ -57122,16 +57129,16 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="D476" t="s" s="2">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="E476" t="s" s="2">
         <v>76</v>
@@ -57153,13 +57160,13 @@
         <v>76</v>
       </c>
       <c r="L476" t="s" s="2">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="M476" t="s" s="2">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="N476" t="s" s="2">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="O476" s="2"/>
       <c r="P476" s="2"/>
@@ -57227,13 +57234,13 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" t="s" s="2">
@@ -57256,10 +57263,10 @@
         <v>76</v>
       </c>
       <c r="L477" t="s" s="2">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="M477" t="s" s="2">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="N477" t="s" s="2">
         <v>1442</v>
@@ -57313,7 +57320,7 @@
         <v>76</v>
       </c>
       <c r="AG477" t="s" s="2">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="AH477" t="s" s="2">
         <v>74</v>
@@ -57330,13 +57337,13 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" t="s" s="2">
@@ -57362,10 +57369,10 @@
         <v>223</v>
       </c>
       <c r="M478" t="s" s="2">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="N478" t="s" s="2">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="O478" s="2"/>
       <c r="P478" s="2"/>
@@ -57416,7 +57423,7 @@
         <v>76</v>
       </c>
       <c r="AG478" t="s" s="2">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="AH478" t="s" s="2">
         <v>74</v>
@@ -57433,13 +57440,13 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" t="s" s="2">
@@ -57536,13 +57543,13 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" t="s" s="2">
@@ -57641,13 +57648,13 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" t="s" s="2">
@@ -57748,13 +57755,13 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="C482" t="s" s="2">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" t="s" s="2">
@@ -57780,10 +57787,10 @@
         <v>227</v>
       </c>
       <c r="M482" t="s" s="2">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="N482" t="s" s="2">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="O482" s="2"/>
       <c r="P482" s="2"/>
@@ -57834,7 +57841,7 @@
         <v>76</v>
       </c>
       <c r="AG482" t="s" s="2">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="AH482" t="s" s="2">
         <v>83</v>
@@ -57851,13 +57858,13 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" t="s" s="2">
@@ -57883,10 +57890,10 @@
         <v>359</v>
       </c>
       <c r="M483" t="s" s="2">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="N483" t="s" s="2">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="O483" s="2"/>
       <c r="P483" s="2"/>
@@ -57937,7 +57944,7 @@
         <v>76</v>
       </c>
       <c r="AG483" t="s" s="2">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="AH483" t="s" s="2">
         <v>74</v>
@@ -57954,13 +57961,13 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" t="s" s="2">
@@ -57986,10 +57993,10 @@
         <v>227</v>
       </c>
       <c r="M484" t="s" s="2">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="N484" t="s" s="2">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="O484" s="2"/>
       <c r="P484" s="2"/>
@@ -58040,7 +58047,7 @@
         <v>76</v>
       </c>
       <c r="AG484" t="s" s="2">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="AH484" t="s" s="2">
         <v>74</v>
@@ -58057,13 +58064,13 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" t="s" s="2">
@@ -58089,14 +58096,14 @@
         <v>1250</v>
       </c>
       <c r="M485" t="s" s="2">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="N485" t="s" s="2">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="O485" s="2"/>
       <c r="P485" t="s" s="2">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="Q485" t="s" s="2">
         <v>76</v>
@@ -58145,7 +58152,7 @@
         <v>76</v>
       </c>
       <c r="AG485" t="s" s="2">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="AH485" t="s" s="2">
         <v>74</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:31:05+10:00</t>
+    <t>2024-05-30T15:43:42+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:10:08+10:00</t>
+    <t>2024-10-28T13:52:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
